--- a/INTLINE/data/134/DEUSTATIS/old/National accounts - national disposable income quarters.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/old/National accounts - national disposable income quarters.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="57">
   <si>
     <t>National accounts - GDP, gross national income, national
 disposable income, net lending/net borrowing of the national
@@ -145,9 +145,6 @@
     <t>EUR bn</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t xml:space="preserve"> + Primary income from the rest of the world</t>
   </si>
   <si>
@@ -187,7 +184,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:46:58</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:16:19</t>
   </si>
 </sst>
 </file>
@@ -3813,21 +3810,21 @@
         <v>880.31</v>
       </c>
       <c r="DS7" t="n" s="10">
-        <v>847.11</v>
+        <v>848.65</v>
       </c>
       <c r="DT7" t="n" s="10">
-        <v>863.22</v>
+        <v>866.06</v>
       </c>
       <c r="DU7" t="n" s="10">
-        <v>913.79</v>
-      </c>
-      <c r="DV7" t="s" s="10">
-        <v>43</v>
+        <v>915.37</v>
+      </c>
+      <c r="DV7" t="n" s="10">
+        <v>940.54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s" s="13">
         <v>42</v>
@@ -4193,21 +4190,21 @@
         <v>52.441</v>
       </c>
       <c r="DS8" t="n" s="10">
-        <v>49.395</v>
+        <v>49.423</v>
       </c>
       <c r="DT8" t="n" s="10">
-        <v>51.272</v>
+        <v>51.297</v>
       </c>
       <c r="DU8" t="n" s="10">
-        <v>51.654</v>
-      </c>
-      <c r="DV8" t="s" s="10">
-        <v>43</v>
+        <v>51.859</v>
+      </c>
+      <c r="DV8" t="n" s="10">
+        <v>58.681</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s" s="13">
         <v>42</v>
@@ -4573,21 +4570,21 @@
         <v>21.623</v>
       </c>
       <c r="DS9" t="n" s="10">
-        <v>21.005</v>
+        <v>20.983</v>
       </c>
       <c r="DT9" t="n" s="10">
-        <v>37.397</v>
+        <v>37.433</v>
       </c>
       <c r="DU9" t="n" s="10">
-        <v>22.829</v>
-      </c>
-      <c r="DV9" t="s" s="10">
-        <v>43</v>
+        <v>22.919</v>
+      </c>
+      <c r="DV9" t="n" s="10">
+        <v>22.023</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="13">
         <v>42</v>
@@ -4953,21 +4950,21 @@
         <v>911.128</v>
       </c>
       <c r="DS10" t="n" s="10">
-        <v>875.5</v>
+        <v>877.09</v>
       </c>
       <c r="DT10" t="n" s="10">
-        <v>877.095</v>
+        <v>879.924</v>
       </c>
       <c r="DU10" t="n" s="10">
-        <v>942.615</v>
-      </c>
-      <c r="DV10" t="s" s="10">
-        <v>43</v>
+        <v>944.31</v>
+      </c>
+      <c r="DV10" t="n" s="10">
+        <v>977.198</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s" s="13">
         <v>42</v>
@@ -5333,21 +5330,21 @@
         <v>164.662</v>
       </c>
       <c r="DS11" t="n" s="10">
-        <v>168.115</v>
+        <v>168.222</v>
       </c>
       <c r="DT11" t="n" s="10">
-        <v>171.345</v>
+        <v>171.482</v>
       </c>
       <c r="DU11" t="n" s="10">
-        <v>176.084</v>
-      </c>
-      <c r="DV11" t="s" s="10">
-        <v>43</v>
+        <v>176.29</v>
+      </c>
+      <c r="DV11" t="n" s="10">
+        <v>178.044</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="13">
         <v>42</v>
@@ -5713,21 +5710,21 @@
         <v>746.466</v>
       </c>
       <c r="DS12" t="n" s="10">
-        <v>707.385</v>
+        <v>708.868</v>
       </c>
       <c r="DT12" t="n" s="10">
-        <v>705.75</v>
+        <v>708.442</v>
       </c>
       <c r="DU12" t="n" s="10">
-        <v>766.531</v>
-      </c>
-      <c r="DV12" t="s" s="10">
-        <v>43</v>
+        <v>768.02</v>
+      </c>
+      <c r="DV12" t="n" s="10">
+        <v>799.154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s" s="13">
         <v>42</v>
@@ -6093,21 +6090,21 @@
         <v>16.596</v>
       </c>
       <c r="DS13" t="n" s="10">
-        <v>21.609</v>
+        <v>21.696</v>
       </c>
       <c r="DT13" t="n" s="10">
-        <v>20.891</v>
+        <v>20.92</v>
       </c>
       <c r="DU13" t="n" s="10">
-        <v>18.011</v>
-      </c>
-      <c r="DV13" t="s" s="10">
-        <v>43</v>
+        <v>18.175</v>
+      </c>
+      <c r="DV13" t="n" s="10">
+        <v>19.133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s" s="13">
         <v>42</v>
@@ -6473,21 +6470,21 @@
         <v>30.759</v>
       </c>
       <c r="DS14" t="n" s="10">
-        <v>32.656</v>
+        <v>32.665</v>
       </c>
       <c r="DT14" t="n" s="10">
-        <v>29.625</v>
+        <v>29.64</v>
       </c>
       <c r="DU14" t="n" s="10">
-        <v>31.772</v>
-      </c>
-      <c r="DV14" t="s" s="10">
-        <v>43</v>
+        <v>31.811</v>
+      </c>
+      <c r="DV14" t="n" s="10">
+        <v>33.567</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s" s="13">
         <v>42</v>
@@ -6853,21 +6850,21 @@
         <v>732.303</v>
       </c>
       <c r="DS15" t="n" s="10">
-        <v>696.338</v>
+        <v>697.899</v>
       </c>
       <c r="DT15" t="n" s="10">
-        <v>697.016</v>
+        <v>699.722</v>
       </c>
       <c r="DU15" t="n" s="10">
-        <v>752.77</v>
-      </c>
-      <c r="DV15" t="s" s="10">
-        <v>43</v>
+        <v>754.384</v>
+      </c>
+      <c r="DV15" t="n" s="10">
+        <v>784.72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s" s="13">
         <v>42</v>
@@ -7233,21 +7230,21 @@
         <v>90.928</v>
       </c>
       <c r="DS16" t="n" s="10">
-        <v>101.879</v>
+        <v>103.42</v>
       </c>
       <c r="DT16" t="n" s="10">
-        <v>73.648</v>
+        <v>76.788</v>
       </c>
       <c r="DU16" t="n" s="10">
-        <v>87.465</v>
-      </c>
-      <c r="DV16" t="s" s="10">
-        <v>43</v>
+        <v>92.323</v>
+      </c>
+      <c r="DV16" t="n" s="10">
+        <v>99.867</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s" s="13">
         <v>42</v>
@@ -7613,21 +7610,21 @@
         <v>70.98</v>
       </c>
       <c r="DS17" t="n" s="10">
-        <v>74.272</v>
+        <v>75.765</v>
       </c>
       <c r="DT17" t="n" s="10">
-        <v>51.851</v>
+        <v>55.255</v>
       </c>
       <c r="DU17" t="n" s="10">
-        <v>52.245</v>
-      </c>
-      <c r="DV17" t="s" s="10">
-        <v>43</v>
+        <v>58.122</v>
+      </c>
+      <c r="DV17" t="n" s="10">
+        <v>56.332</v>
       </c>
     </row>
     <row r="18" ht="33.75" customHeight="true">
       <c r="A18" t="s" s="14">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19">
@@ -7998,21 +7995,21 @@
         <v>864.209</v>
       </c>
       <c r="DS19" t="n" s="10">
-        <v>856.548</v>
+        <v>858.113</v>
       </c>
       <c r="DT19" t="n" s="10">
-        <v>873.579</v>
+        <v>876.527</v>
       </c>
       <c r="DU19" t="n" s="10">
-        <v>910.982</v>
-      </c>
-      <c r="DV19" t="s" s="10">
-        <v>43</v>
+        <v>912.678</v>
+      </c>
+      <c r="DV19" t="n" s="10">
+        <v>923.302</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s" s="13">
         <v>42</v>
@@ -8378,21 +8375,21 @@
         <v>49.09</v>
       </c>
       <c r="DS20" t="n" s="10">
-        <v>50.928</v>
+        <v>51.007</v>
       </c>
       <c r="DT20" t="n" s="10">
-        <v>51.196</v>
+        <v>51.271</v>
       </c>
       <c r="DU20" t="n" s="10">
-        <v>53.692</v>
-      </c>
-      <c r="DV20" t="s" s="10">
-        <v>43</v>
+        <v>53.958</v>
+      </c>
+      <c r="DV20" t="n" s="10">
+        <v>55.024</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s" s="13">
         <v>42</v>
@@ -8758,21 +8755,21 @@
         <v>25.988</v>
       </c>
       <c r="DS21" t="n" s="10">
-        <v>24.797</v>
+        <v>25.087</v>
       </c>
       <c r="DT21" t="n" s="10">
-        <v>24.637</v>
+        <v>24.976</v>
       </c>
       <c r="DU21" t="n" s="10">
-        <v>26.084</v>
-      </c>
-      <c r="DV21" t="s" s="10">
-        <v>43</v>
+        <v>26.521</v>
+      </c>
+      <c r="DV21" t="n" s="10">
+        <v>26.774</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s" s="13">
         <v>42</v>
@@ -9138,21 +9135,21 @@
         <v>887.311</v>
       </c>
       <c r="DS22" t="n" s="10">
-        <v>882.679</v>
+        <v>884.033</v>
       </c>
       <c r="DT22" t="n" s="10">
-        <v>900.138</v>
+        <v>902.822</v>
       </c>
       <c r="DU22" t="n" s="10">
-        <v>938.59</v>
-      </c>
-      <c r="DV22" t="s" s="10">
-        <v>43</v>
+        <v>940.115</v>
+      </c>
+      <c r="DV22" t="n" s="10">
+        <v>951.552</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s" s="13">
         <v>42</v>
@@ -9518,21 +9515,21 @@
         <v>165.249</v>
       </c>
       <c r="DS23" t="n" s="10">
-        <v>167.584</v>
+        <v>167.696</v>
       </c>
       <c r="DT23" t="n" s="10">
-        <v>171.187</v>
+        <v>171.329</v>
       </c>
       <c r="DU23" t="n" s="10">
-        <v>176.15</v>
-      </c>
-      <c r="DV23" t="s" s="10">
-        <v>43</v>
+        <v>176.361</v>
+      </c>
+      <c r="DV23" t="n" s="10">
+        <v>178.653</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s" s="13">
         <v>42</v>
@@ -9898,21 +9895,21 @@
         <v>722.062</v>
       </c>
       <c r="DS24" t="n" s="10">
-        <v>715.095</v>
+        <v>716.337</v>
       </c>
       <c r="DT24" t="n" s="10">
-        <v>728.951</v>
+        <v>731.493</v>
       </c>
       <c r="DU24" t="n" s="10">
-        <v>762.44</v>
-      </c>
-      <c r="DV24" t="s" s="10">
-        <v>43</v>
+        <v>763.754</v>
+      </c>
+      <c r="DV24" t="n" s="10">
+        <v>772.899</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s" s="13">
         <v>42</v>
@@ -9957,16 +9954,16 @@
         <v>4.667</v>
       </c>
       <c r="P25" t="n" s="10">
-        <v>4.447</v>
+        <v>4.448</v>
       </c>
       <c r="Q25" t="n" s="10">
-        <v>4.433</v>
+        <v>4.434</v>
       </c>
       <c r="R25" t="n" s="10">
-        <v>4.835</v>
+        <v>4.834</v>
       </c>
       <c r="S25" t="n" s="10">
-        <v>4.992</v>
+        <v>4.993</v>
       </c>
       <c r="T25" t="n" s="10">
         <v>4.685</v>
@@ -9981,13 +9978,13 @@
         <v>4.895</v>
       </c>
       <c r="X25" t="n" s="10">
-        <v>4.873</v>
+        <v>4.874</v>
       </c>
       <c r="Y25" t="n" s="10">
         <v>5.419</v>
       </c>
       <c r="Z25" t="n" s="10">
-        <v>5.537</v>
+        <v>5.536</v>
       </c>
       <c r="AA25" t="n" s="10">
         <v>5.783</v>
@@ -9996,1823 +9993,1823 @@
         <v>5.515</v>
       </c>
       <c r="AC25" t="n" s="10">
-        <v>5.737</v>
+        <v>5.738</v>
       </c>
       <c r="AD25" t="n" s="10">
-        <v>5.592</v>
+        <v>5.591</v>
       </c>
       <c r="AE25" t="n" s="10">
-        <v>5.345</v>
+        <v>5.343</v>
       </c>
       <c r="AF25" t="n" s="10">
-        <v>5.988</v>
+        <v>5.989</v>
       </c>
       <c r="AG25" t="n" s="10">
-        <v>5.768</v>
+        <v>5.769</v>
       </c>
       <c r="AH25" t="n" s="10">
-        <v>5.937</v>
+        <v>5.935</v>
       </c>
       <c r="AI25" t="n" s="10">
-        <v>6.842</v>
+        <v>6.837</v>
       </c>
       <c r="AJ25" t="n" s="10">
-        <v>7.691</v>
+        <v>7.692</v>
       </c>
       <c r="AK25" t="n" s="10">
-        <v>7.658</v>
+        <v>7.659</v>
       </c>
       <c r="AL25" t="n" s="10">
-        <v>7.976</v>
+        <v>7.978</v>
       </c>
       <c r="AM25" t="n" s="10">
-        <v>7.447</v>
+        <v>7.439</v>
       </c>
       <c r="AN25" t="n" s="10">
-        <v>7.752</v>
+        <v>7.755</v>
       </c>
       <c r="AO25" t="n" s="10">
-        <v>8.092</v>
+        <v>8.093</v>
       </c>
       <c r="AP25" t="n" s="10">
-        <v>9.008</v>
+        <v>9.012</v>
       </c>
       <c r="AQ25" t="n" s="10">
-        <v>9.366</v>
+        <v>9.355</v>
       </c>
       <c r="AR25" t="n" s="10">
-        <v>10.399</v>
+        <v>10.401</v>
       </c>
       <c r="AS25" t="n" s="10">
-        <v>11.499</v>
+        <v>11.5</v>
       </c>
       <c r="AT25" t="n" s="10">
-        <v>10.501</v>
+        <v>10.509</v>
       </c>
       <c r="AU25" t="n" s="10">
-        <v>9.532</v>
+        <v>9.518</v>
       </c>
       <c r="AV25" t="n" s="10">
-        <v>9.813</v>
+        <v>9.814</v>
       </c>
       <c r="AW25" t="n" s="10">
-        <v>10.62</v>
+        <v>10.624</v>
       </c>
       <c r="AX25" t="n" s="10">
-        <v>11.909</v>
+        <v>11.918</v>
       </c>
       <c r="AY25" t="n" s="10">
-        <v>13.914</v>
+        <v>13.899</v>
       </c>
       <c r="AZ25" t="n" s="10">
         <v>12.567</v>
       </c>
       <c r="BA25" t="n" s="10">
-        <v>12.633</v>
+        <v>12.637</v>
       </c>
       <c r="BB25" t="n" s="10">
-        <v>12.077</v>
+        <v>12.088</v>
       </c>
       <c r="BC25" t="n" s="10">
-        <v>10.933</v>
+        <v>10.919</v>
       </c>
       <c r="BD25" t="n" s="10">
-        <v>9.223</v>
+        <v>9.222</v>
       </c>
       <c r="BE25" t="n" s="10">
-        <v>9.429</v>
+        <v>9.434</v>
       </c>
       <c r="BF25" t="n" s="10">
-        <v>9.878</v>
+        <v>9.888</v>
       </c>
       <c r="BG25" t="n" s="10">
-        <v>10.445</v>
+        <v>10.432</v>
       </c>
       <c r="BH25" t="n" s="10">
-        <v>10.257</v>
+        <v>10.254</v>
       </c>
       <c r="BI25" t="n" s="10">
-        <v>10.887</v>
+        <v>10.89</v>
       </c>
       <c r="BJ25" t="n" s="10">
-        <v>11.255</v>
+        <v>11.266</v>
       </c>
       <c r="BK25" t="n" s="10">
-        <v>10.625</v>
+        <v>10.618</v>
       </c>
       <c r="BL25" t="n" s="10">
-        <v>9.903</v>
+        <v>9.884</v>
       </c>
       <c r="BM25" t="n" s="10">
-        <v>9.783</v>
+        <v>9.79</v>
       </c>
       <c r="BN25" t="n" s="10">
-        <v>9.946</v>
+        <v>9.964</v>
       </c>
       <c r="BO25" t="n" s="10">
-        <v>11.011</v>
+        <v>11.009</v>
       </c>
       <c r="BP25" t="n" s="10">
-        <v>11.594</v>
+        <v>11.557</v>
       </c>
       <c r="BQ25" t="n" s="10">
-        <v>10.205</v>
+        <v>10.215</v>
       </c>
       <c r="BR25" t="n" s="10">
-        <v>10.069</v>
+        <v>10.098</v>
       </c>
       <c r="BS25" t="n" s="10">
-        <v>13.819</v>
+        <v>13.821</v>
       </c>
       <c r="BT25" t="n" s="10">
-        <v>11.027</v>
+        <v>10.97</v>
       </c>
       <c r="BU25" t="n" s="10">
-        <v>9.778</v>
+        <v>9.802</v>
       </c>
       <c r="BV25" t="n" s="10">
-        <v>9.669</v>
+        <v>9.701</v>
       </c>
       <c r="BW25" t="n" s="10">
-        <v>14.618</v>
+        <v>14.616</v>
       </c>
       <c r="BX25" t="n" s="10">
-        <v>9.277</v>
+        <v>9.214</v>
       </c>
       <c r="BY25" t="n" s="10">
-        <v>9.037</v>
+        <v>9.073</v>
       </c>
       <c r="BZ25" t="n" s="10">
-        <v>9.256</v>
+        <v>9.286</v>
       </c>
       <c r="CA25" t="n" s="10">
-        <v>10.054</v>
+        <v>10.048</v>
       </c>
       <c r="CB25" t="n" s="10">
-        <v>10.48</v>
+        <v>10.414</v>
       </c>
       <c r="CC25" t="n" s="10">
-        <v>11.508</v>
+        <v>11.556</v>
       </c>
       <c r="CD25" t="n" s="10">
-        <v>12.479</v>
+        <v>12.503</v>
       </c>
       <c r="CE25" t="n" s="10">
-        <v>11.744</v>
+        <v>11.735</v>
       </c>
       <c r="CF25" t="n" s="10">
-        <v>13.751</v>
+        <v>13.687</v>
       </c>
       <c r="CG25" t="n" s="10">
-        <v>13.03</v>
+        <v>13.078</v>
       </c>
       <c r="CH25" t="n" s="10">
-        <v>13.323</v>
+        <v>13.347</v>
       </c>
       <c r="CI25" t="n" s="10">
-        <v>13.693</v>
+        <v>13.682</v>
       </c>
       <c r="CJ25" t="n" s="10">
-        <v>13.632</v>
+        <v>13.576</v>
       </c>
       <c r="CK25" t="n" s="10">
-        <v>13.767</v>
+        <v>13.815</v>
       </c>
       <c r="CL25" t="n" s="10">
-        <v>13.206</v>
+        <v>13.225</v>
       </c>
       <c r="CM25" t="n" s="10">
-        <v>17.249</v>
+        <v>17.239</v>
       </c>
       <c r="CN25" t="n" s="10">
-        <v>13.37</v>
+        <v>13.331</v>
       </c>
       <c r="CO25" t="n" s="10">
-        <v>14.859</v>
+        <v>14.895</v>
       </c>
       <c r="CP25" t="n" s="10">
-        <v>15.156</v>
+        <v>15.168</v>
       </c>
       <c r="CQ25" t="n" s="10">
-        <v>16.113</v>
+        <v>16.107</v>
       </c>
       <c r="CR25" t="n" s="10">
-        <v>15.524</v>
+        <v>15.513</v>
       </c>
       <c r="CS25" t="n" s="10">
-        <v>15.489</v>
+        <v>15.518</v>
       </c>
       <c r="CT25" t="n" s="10">
-        <v>16.087</v>
+        <v>16.074</v>
       </c>
       <c r="CU25" t="n" s="10">
-        <v>16.338</v>
+        <v>16.327</v>
       </c>
       <c r="CV25" t="n" s="10">
-        <v>19.637</v>
+        <v>19.695</v>
       </c>
       <c r="CW25" t="n" s="10">
-        <v>17.381</v>
+        <v>17.399</v>
       </c>
       <c r="CX25" t="n" s="10">
-        <v>17.997</v>
+        <v>17.933</v>
       </c>
       <c r="CY25" t="n" s="10">
-        <v>15.061</v>
+        <v>15.029</v>
       </c>
       <c r="CZ25" t="n" s="10">
-        <v>17.28</v>
+        <v>17.439</v>
       </c>
       <c r="DA25" t="n" s="10">
-        <v>16.897</v>
+        <v>16.913</v>
       </c>
       <c r="DB25" t="n" s="10">
-        <v>17.065</v>
+        <v>16.922</v>
       </c>
       <c r="DC25" t="n" s="10">
-        <v>16.504</v>
+        <v>16.417</v>
       </c>
       <c r="DD25" t="n" s="10">
-        <v>17.134</v>
+        <v>17.431</v>
       </c>
       <c r="DE25" t="n" s="10">
         <v>17.469</v>
       </c>
       <c r="DF25" t="n" s="10">
-        <v>16.839</v>
+        <v>16.629</v>
       </c>
       <c r="DG25" t="n" s="10">
-        <v>17.249</v>
+        <v>17.062</v>
       </c>
       <c r="DH25" t="n" s="10">
-        <v>17.981</v>
+        <v>18.444</v>
       </c>
       <c r="DI25" t="n" s="10">
-        <v>17.682</v>
+        <v>17.672</v>
       </c>
       <c r="DJ25" t="n" s="10">
-        <v>18.026</v>
+        <v>17.76</v>
       </c>
       <c r="DK25" t="n" s="10">
-        <v>18.658</v>
+        <v>18.348</v>
       </c>
       <c r="DL25" t="n" s="10">
-        <v>18.608</v>
+        <v>19.252</v>
       </c>
       <c r="DM25" t="n" s="10">
-        <v>18.28</v>
+        <v>18.26</v>
       </c>
       <c r="DN25" t="n" s="10">
-        <v>18.72</v>
+        <v>18.405</v>
       </c>
       <c r="DO25" t="n" s="10">
-        <v>18.986</v>
+        <v>18.543</v>
       </c>
       <c r="DP25" t="n" s="10">
-        <v>16.159</v>
+        <v>16.995</v>
       </c>
       <c r="DQ25" t="n" s="10">
-        <v>18.869</v>
+        <v>18.849</v>
       </c>
       <c r="DR25" t="n" s="10">
-        <v>18.828</v>
+        <v>18.454</v>
       </c>
       <c r="DS25" t="n" s="10">
-        <v>20.43</v>
+        <v>19.966</v>
       </c>
       <c r="DT25" t="n" s="10">
-        <v>17.839</v>
+        <v>18.885</v>
       </c>
       <c r="DU25" t="n" s="10">
-        <v>19.966</v>
-      </c>
-      <c r="DV25" t="s" s="10">
-        <v>43</v>
+        <v>20.112</v>
+      </c>
+      <c r="DV25" t="n" s="10">
+        <v>20.961</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s" s="13">
         <v>42</v>
       </c>
       <c r="C26" t="n" s="10">
-        <v>14.76</v>
+        <v>14.749</v>
       </c>
       <c r="D26" t="n" s="10">
-        <v>9.652</v>
+        <v>9.65</v>
       </c>
       <c r="E26" t="n" s="10">
-        <v>9.973</v>
+        <v>9.984</v>
       </c>
       <c r="F26" t="n" s="10">
-        <v>10.003</v>
+        <v>10.006</v>
       </c>
       <c r="G26" t="n" s="10">
-        <v>10.402</v>
+        <v>10.391</v>
       </c>
       <c r="H26" t="n" s="10">
-        <v>10.39</v>
+        <v>10.385</v>
       </c>
       <c r="I26" t="n" s="10">
-        <v>10.915</v>
+        <v>10.928</v>
       </c>
       <c r="J26" t="n" s="10">
-        <v>10.287</v>
+        <v>10.29</v>
       </c>
       <c r="K26" t="n" s="10">
-        <v>10.353</v>
+        <v>10.343</v>
       </c>
       <c r="L26" t="n" s="10">
-        <v>11.624</v>
+        <v>11.614</v>
       </c>
       <c r="M26" t="n" s="10">
-        <v>11.852</v>
+        <v>11.868</v>
       </c>
       <c r="N26" t="n" s="10">
-        <v>12.321</v>
+        <v>12.325</v>
       </c>
       <c r="O26" t="n" s="10">
-        <v>11.935</v>
+        <v>11.924</v>
       </c>
       <c r="P26" t="n" s="10">
-        <v>12.236</v>
+        <v>12.223</v>
       </c>
       <c r="Q26" t="n" s="10">
-        <v>12.641</v>
+        <v>12.661</v>
       </c>
       <c r="R26" t="n" s="10">
-        <v>12.384</v>
+        <v>12.388</v>
       </c>
       <c r="S26" t="n" s="10">
-        <v>11.455</v>
+        <v>11.443</v>
       </c>
       <c r="T26" t="n" s="10">
-        <v>11.701</v>
+        <v>11.688</v>
       </c>
       <c r="U26" t="n" s="10">
-        <v>11.865</v>
+        <v>11.887</v>
       </c>
       <c r="V26" t="n" s="10">
-        <v>12.575</v>
+        <v>12.578</v>
       </c>
       <c r="W26" t="n" s="10">
-        <v>11.791</v>
+        <v>11.777</v>
       </c>
       <c r="X26" t="n" s="10">
-        <v>12.805</v>
+        <v>12.794</v>
       </c>
       <c r="Y26" t="n" s="10">
-        <v>11.114</v>
+        <v>11.137</v>
       </c>
       <c r="Z26" t="n" s="10">
-        <v>11.902</v>
+        <v>11.904</v>
       </c>
       <c r="AA26" t="n" s="10">
-        <v>13.562</v>
+        <v>13.546</v>
       </c>
       <c r="AB26" t="n" s="10">
-        <v>12.057</v>
+        <v>12.048</v>
       </c>
       <c r="AC26" t="n" s="10">
-        <v>13.52</v>
+        <v>13.544</v>
       </c>
       <c r="AD26" t="n" s="10">
-        <v>10.988</v>
+        <v>10.989</v>
       </c>
       <c r="AE26" t="n" s="10">
-        <v>14.144</v>
+        <v>14.127</v>
       </c>
       <c r="AF26" t="n" s="10">
-        <v>11.195</v>
+        <v>11.189</v>
       </c>
       <c r="AG26" t="n" s="10">
-        <v>12.964</v>
+        <v>12.986</v>
       </c>
       <c r="AH26" t="n" s="10">
-        <v>12.43</v>
+        <v>12.431</v>
       </c>
       <c r="AI26" t="n" s="10">
-        <v>12.872</v>
+        <v>12.855</v>
       </c>
       <c r="AJ26" t="n" s="10">
-        <v>13.625</v>
+        <v>13.62</v>
       </c>
       <c r="AK26" t="n" s="10">
-        <v>15.286</v>
+        <v>15.31</v>
       </c>
       <c r="AL26" t="n" s="10">
-        <v>14.3</v>
+        <v>14.297</v>
       </c>
       <c r="AM26" t="n" s="10">
-        <v>13.839</v>
+        <v>13.828</v>
       </c>
       <c r="AN26" t="n" s="10">
-        <v>15.419</v>
+        <v>15.413</v>
       </c>
       <c r="AO26" t="n" s="10">
-        <v>15.174</v>
+        <v>15.2</v>
       </c>
       <c r="AP26" t="n" s="10">
-        <v>16.697</v>
+        <v>16.687</v>
       </c>
       <c r="AQ26" t="n" s="10">
-        <v>15.314</v>
+        <v>15.308</v>
       </c>
       <c r="AR26" t="n" s="10">
-        <v>18.941</v>
+        <v>18.94</v>
       </c>
       <c r="AS26" t="n" s="10">
-        <v>17.343</v>
+        <v>17.371</v>
       </c>
       <c r="AT26" t="n" s="10">
-        <v>17.499</v>
+        <v>17.477</v>
       </c>
       <c r="AU26" t="n" s="10">
-        <v>15.625</v>
+        <v>15.626</v>
       </c>
       <c r="AV26" t="n" s="10">
-        <v>18.931</v>
+        <v>18.938</v>
       </c>
       <c r="AW26" t="n" s="10">
-        <v>16.638</v>
+        <v>16.664</v>
       </c>
       <c r="AX26" t="n" s="10">
-        <v>18.579</v>
+        <v>18.545</v>
       </c>
       <c r="AY26" t="n" s="10">
-        <v>19.491</v>
+        <v>19.495</v>
       </c>
       <c r="AZ26" t="n" s="10">
-        <v>21.172</v>
+        <v>21.188</v>
       </c>
       <c r="BA26" t="n" s="10">
-        <v>21.299</v>
+        <v>21.322</v>
       </c>
       <c r="BB26" t="n" s="10">
-        <v>18.656</v>
+        <v>18.614</v>
       </c>
       <c r="BC26" t="n" s="10">
-        <v>17.218</v>
+        <v>17.225</v>
       </c>
       <c r="BD26" t="n" s="10">
-        <v>17.375</v>
+        <v>17.394</v>
       </c>
       <c r="BE26" t="n" s="10">
-        <v>17.443</v>
+        <v>17.463</v>
       </c>
       <c r="BF26" t="n" s="10">
-        <v>15.858</v>
+        <v>15.81</v>
       </c>
       <c r="BG26" t="n" s="10">
-        <v>18.625</v>
+        <v>18.635</v>
       </c>
       <c r="BH26" t="n" s="10">
-        <v>18.036</v>
+        <v>18.054</v>
       </c>
       <c r="BI26" t="n" s="10">
-        <v>18.515</v>
+        <v>18.533</v>
       </c>
       <c r="BJ26" t="n" s="10">
-        <v>17.885</v>
+        <v>17.839</v>
       </c>
       <c r="BK26" t="n" s="10">
-        <v>17.093</v>
+        <v>17.105</v>
       </c>
       <c r="BL26" t="n" s="10">
-        <v>16.907</v>
+        <v>16.921</v>
       </c>
       <c r="BM26" t="n" s="10">
-        <v>17.825</v>
+        <v>17.839</v>
       </c>
       <c r="BN26" t="n" s="10">
-        <v>17.978</v>
+        <v>17.938</v>
       </c>
       <c r="BO26" t="n" s="10">
-        <v>17.919</v>
+        <v>17.93</v>
       </c>
       <c r="BP26" t="n" s="10">
-        <v>18.454</v>
+        <v>18.465</v>
       </c>
       <c r="BQ26" t="n" s="10">
-        <v>18.407</v>
+        <v>18.418</v>
       </c>
       <c r="BR26" t="n" s="10">
-        <v>19.905</v>
+        <v>19.872</v>
       </c>
       <c r="BS26" t="n" s="10">
-        <v>21.846</v>
+        <v>21.855</v>
       </c>
       <c r="BT26" t="n" s="10">
-        <v>18.732</v>
+        <v>18.744</v>
       </c>
       <c r="BU26" t="n" s="10">
-        <v>17.845</v>
+        <v>17.849</v>
       </c>
       <c r="BV26" t="n" s="10">
-        <v>20.762</v>
+        <v>20.738</v>
       </c>
       <c r="BW26" t="n" s="10">
-        <v>22.027</v>
+        <v>22.029</v>
       </c>
       <c r="BX26" t="n" s="10">
-        <v>14.672</v>
+        <v>14.686</v>
       </c>
       <c r="BY26" t="n" s="10">
-        <v>16.641</v>
+        <v>16.647</v>
       </c>
       <c r="BZ26" t="n" s="10">
-        <v>20.86</v>
+        <v>20.838</v>
       </c>
       <c r="CA26" t="n" s="10">
-        <v>17.883</v>
+        <v>17.879</v>
       </c>
       <c r="CB26" t="n" s="10">
-        <v>19.024</v>
+        <v>19.044</v>
       </c>
       <c r="CC26" t="n" s="10">
-        <v>21.92</v>
+        <v>21.928</v>
       </c>
       <c r="CD26" t="n" s="10">
-        <v>21.554</v>
+        <v>21.531</v>
       </c>
       <c r="CE26" t="n" s="10">
-        <v>20.198</v>
+        <v>20.185</v>
       </c>
       <c r="CF26" t="n" s="10">
-        <v>21.04</v>
+        <v>21.068</v>
       </c>
       <c r="CG26" t="n" s="10">
-        <v>21.619</v>
+        <v>21.634</v>
       </c>
       <c r="CH26" t="n" s="10">
-        <v>21.606</v>
+        <v>21.575</v>
       </c>
       <c r="CI26" t="n" s="10">
-        <v>22.876</v>
+        <v>22.86</v>
       </c>
       <c r="CJ26" t="n" s="10">
-        <v>21.788</v>
+        <v>21.825</v>
       </c>
       <c r="CK26" t="n" s="10">
-        <v>21.855</v>
+        <v>21.871</v>
       </c>
       <c r="CL26" t="n" s="10">
-        <v>23.112</v>
+        <v>23.075</v>
       </c>
       <c r="CM26" t="n" s="10">
-        <v>28.506</v>
+        <v>28.491</v>
       </c>
       <c r="CN26" t="n" s="10">
-        <v>24.029</v>
+        <v>24.077</v>
       </c>
       <c r="CO26" t="n" s="10">
-        <v>24.746</v>
+        <v>24.759</v>
       </c>
       <c r="CP26" t="n" s="10">
-        <v>25.552</v>
+        <v>25.505</v>
       </c>
       <c r="CQ26" t="n" s="10">
-        <v>26.621</v>
+        <v>26.615</v>
       </c>
       <c r="CR26" t="n" s="10">
-        <v>25.638</v>
+        <v>25.697</v>
       </c>
       <c r="CS26" t="n" s="10">
-        <v>23.78</v>
+        <v>23.783</v>
       </c>
       <c r="CT26" t="n" s="10">
-        <v>23.36</v>
+        <v>23.304</v>
       </c>
       <c r="CU26" t="n" s="10">
-        <v>29.157</v>
+        <v>29.164</v>
       </c>
       <c r="CV26" t="n" s="10">
-        <v>26.823</v>
+        <v>26.896</v>
       </c>
       <c r="CW26" t="n" s="10">
-        <v>24.718</v>
+        <v>24.706</v>
       </c>
       <c r="CX26" t="n" s="10">
-        <v>27.571</v>
+        <v>27.503</v>
       </c>
       <c r="CY26" t="n" s="10">
-        <v>26.115</v>
+        <v>26.132</v>
       </c>
       <c r="CZ26" t="n" s="10">
-        <v>24.038</v>
+        <v>24.144</v>
       </c>
       <c r="DA26" t="n" s="10">
-        <v>28.837</v>
+        <v>28.799</v>
       </c>
       <c r="DB26" t="n" s="10">
-        <v>24.208</v>
+        <v>24.124</v>
       </c>
       <c r="DC26" t="n" s="10">
-        <v>28.544</v>
+        <v>28.587</v>
       </c>
       <c r="DD26" t="n" s="10">
-        <v>31.903</v>
+        <v>32.05</v>
       </c>
       <c r="DE26" t="n" s="10">
-        <v>26.466</v>
+        <v>26.391</v>
       </c>
       <c r="DF26" t="n" s="10">
-        <v>27.792</v>
+        <v>27.678</v>
       </c>
       <c r="DG26" t="n" s="10">
-        <v>26.98</v>
+        <v>27.06</v>
       </c>
       <c r="DH26" t="n" s="10">
-        <v>28.527</v>
+        <v>28.729</v>
       </c>
       <c r="DI26" t="n" s="10">
-        <v>29.644</v>
+        <v>29.528</v>
       </c>
       <c r="DJ26" t="n" s="10">
-        <v>30.239</v>
+        <v>30.075</v>
       </c>
       <c r="DK26" t="n" s="10">
-        <v>28.105</v>
+        <v>28.24</v>
       </c>
       <c r="DL26" t="n" s="10">
-        <v>29.937</v>
+        <v>30.189</v>
       </c>
       <c r="DM26" t="n" s="10">
-        <v>30.087</v>
+        <v>29.932</v>
       </c>
       <c r="DN26" t="n" s="10">
-        <v>29.858</v>
+        <v>29.626</v>
       </c>
       <c r="DO26" t="n" s="10">
-        <v>29.422</v>
+        <v>29.618</v>
       </c>
       <c r="DP26" t="n" s="10">
-        <v>29.614</v>
+        <v>29.922</v>
       </c>
       <c r="DQ26" t="n" s="10">
-        <v>31.294</v>
+        <v>31.096</v>
       </c>
       <c r="DR26" t="n" s="10">
-        <v>30.765</v>
+        <v>30.458</v>
       </c>
       <c r="DS26" t="n" s="10">
-        <v>29.952</v>
+        <v>30.201</v>
       </c>
       <c r="DT26" t="n" s="10">
-        <v>30.853</v>
+        <v>31.213</v>
       </c>
       <c r="DU26" t="n" s="10">
-        <v>33.316</v>
-      </c>
-      <c r="DV26" t="s" s="10">
-        <v>43</v>
+        <v>33.106</v>
+      </c>
+      <c r="DV26" t="n" s="10">
+        <v>33.162</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s" s="13">
         <v>42</v>
       </c>
       <c r="C27" t="n" s="10">
-        <v>320.203</v>
+        <v>320.214</v>
       </c>
       <c r="D27" t="n" s="10">
-        <v>331.886</v>
+        <v>331.888</v>
       </c>
       <c r="E27" t="n" s="10">
-        <v>333.142</v>
+        <v>333.131</v>
       </c>
       <c r="F27" t="n" s="10">
-        <v>339.484</v>
+        <v>339.481</v>
       </c>
       <c r="G27" t="n" s="10">
-        <v>354.12</v>
+        <v>354.131</v>
       </c>
       <c r="H27" t="n" s="10">
-        <v>353.047</v>
+        <v>353.052</v>
       </c>
       <c r="I27" t="n" s="10">
-        <v>357.267</v>
+        <v>357.254</v>
       </c>
       <c r="J27" t="n" s="10">
-        <v>358.831</v>
+        <v>358.828</v>
       </c>
       <c r="K27" t="n" s="10">
-        <v>358.011</v>
+        <v>358.021</v>
       </c>
       <c r="L27" t="n" s="10">
-        <v>361.779</v>
+        <v>361.789</v>
       </c>
       <c r="M27" t="n" s="10">
-        <v>363.495</v>
+        <v>363.479</v>
       </c>
       <c r="N27" t="n" s="10">
-        <v>365.035</v>
+        <v>365.031</v>
       </c>
       <c r="O27" t="n" s="10">
-        <v>373.014</v>
+        <v>373.025</v>
       </c>
       <c r="P27" t="n" s="10">
-        <v>372.011</v>
+        <v>372.025</v>
       </c>
       <c r="Q27" t="n" s="10">
-        <v>376.446</v>
+        <v>376.427</v>
       </c>
       <c r="R27" t="n" s="10">
-        <v>380.638</v>
+        <v>380.633</v>
       </c>
       <c r="S27" t="n" s="10">
-        <v>387.113</v>
+        <v>387.126</v>
       </c>
       <c r="T27" t="n" s="10">
-        <v>388.071</v>
+        <v>388.084</v>
       </c>
       <c r="U27" t="n" s="10">
-        <v>389.092</v>
+        <v>389.07</v>
       </c>
       <c r="V27" t="n" s="10">
-        <v>390.19</v>
+        <v>390.187</v>
       </c>
       <c r="W27" t="n" s="10">
-        <v>391.562</v>
+        <v>391.576</v>
       </c>
       <c r="X27" t="n" s="10">
-        <v>391.053</v>
+        <v>391.065</v>
       </c>
       <c r="Y27" t="n" s="10">
-        <v>395.621</v>
+        <v>395.598</v>
       </c>
       <c r="Z27" t="n" s="10">
-        <v>399.413</v>
+        <v>399.41</v>
       </c>
       <c r="AA27" t="n" s="10">
-        <v>389.549</v>
+        <v>389.565</v>
       </c>
       <c r="AB27" t="n" s="10">
-        <v>403.135</v>
+        <v>403.144</v>
       </c>
       <c r="AC27" t="n" s="10">
-        <v>403.837</v>
+        <v>403.814</v>
       </c>
       <c r="AD27" t="n" s="10">
-        <v>408.121</v>
+        <v>408.119</v>
       </c>
       <c r="AE27" t="n" s="10">
-        <v>407.565</v>
+        <v>407.58</v>
       </c>
       <c r="AF27" t="n" s="10">
-        <v>408.297</v>
+        <v>408.304</v>
       </c>
       <c r="AG27" t="n" s="10">
-        <v>411.813</v>
+        <v>411.792</v>
       </c>
       <c r="AH27" t="n" s="10">
-        <v>414.394</v>
+        <v>414.391</v>
       </c>
       <c r="AI27" t="n" s="10">
-        <v>414.253</v>
+        <v>414.265</v>
       </c>
       <c r="AJ27" t="n" s="10">
-        <v>418.404</v>
+        <v>418.41</v>
       </c>
       <c r="AK27" t="n" s="10">
-        <v>419.824</v>
+        <v>419.801</v>
       </c>
       <c r="AL27" t="n" s="10">
-        <v>425.172</v>
+        <v>425.177</v>
       </c>
       <c r="AM27" t="n" s="10">
-        <v>431.816</v>
+        <v>431.819</v>
       </c>
       <c r="AN27" t="n" s="10">
-        <v>427.078</v>
+        <v>427.087</v>
       </c>
       <c r="AO27" t="n" s="10">
-        <v>425.123</v>
+        <v>425.098</v>
       </c>
       <c r="AP27" t="n" s="10">
-        <v>428.186</v>
+        <v>428.2</v>
       </c>
       <c r="AQ27" t="n" s="10">
-        <v>441.13</v>
+        <v>441.125</v>
       </c>
       <c r="AR27" t="n" s="10">
-        <v>436.155</v>
+        <v>436.158</v>
       </c>
       <c r="AS27" t="n" s="10">
-        <v>439.952</v>
+        <v>439.925</v>
       </c>
       <c r="AT27" t="n" s="10">
-        <v>445.004</v>
+        <v>445.034</v>
       </c>
       <c r="AU27" t="n" s="10">
-        <v>437.882</v>
+        <v>437.867</v>
       </c>
       <c r="AV27" t="n" s="10">
-        <v>439.089</v>
+        <v>439.083</v>
       </c>
       <c r="AW27" t="n" s="10">
-        <v>449.251</v>
+        <v>449.229</v>
       </c>
       <c r="AX27" t="n" s="10">
-        <v>444.989</v>
+        <v>445.032</v>
       </c>
       <c r="AY27" t="n" s="10">
-        <v>441.349</v>
+        <v>441.33</v>
       </c>
       <c r="AZ27" t="n" s="10">
-        <v>438.998</v>
+        <v>438.982</v>
       </c>
       <c r="BA27" t="n" s="10">
-        <v>448.541</v>
+        <v>448.522</v>
       </c>
       <c r="BB27" t="n" s="10">
-        <v>451.111</v>
+        <v>451.164</v>
       </c>
       <c r="BC27" t="n" s="10">
-        <v>461.013</v>
+        <v>460.992</v>
       </c>
       <c r="BD27" t="n" s="10">
-        <v>465.523</v>
+        <v>465.503</v>
       </c>
       <c r="BE27" t="n" s="10">
-        <v>465.134</v>
+        <v>465.119</v>
       </c>
       <c r="BF27" t="n" s="10">
-        <v>469.396</v>
+        <v>469.454</v>
       </c>
       <c r="BG27" t="n" s="10">
-        <v>459.663</v>
+        <v>459.64</v>
       </c>
       <c r="BH27" t="n" s="10">
-        <v>474.305</v>
+        <v>474.284</v>
       </c>
       <c r="BI27" t="n" s="10">
-        <v>472.501</v>
+        <v>472.486</v>
       </c>
       <c r="BJ27" t="n" s="10">
-        <v>477.381</v>
+        <v>477.438</v>
       </c>
       <c r="BK27" t="n" s="10">
-        <v>488.438</v>
+        <v>488.419</v>
       </c>
       <c r="BL27" t="n" s="10">
-        <v>497.34</v>
+        <v>497.307</v>
       </c>
       <c r="BM27" t="n" s="10">
-        <v>498.058</v>
+        <v>498.051</v>
       </c>
       <c r="BN27" t="n" s="10">
-        <v>509.038</v>
+        <v>509.096</v>
       </c>
       <c r="BO27" t="n" s="10">
-        <v>517.613</v>
+        <v>517.6</v>
       </c>
       <c r="BP27" t="n" s="10">
-        <v>518.496</v>
+        <v>518.448</v>
       </c>
       <c r="BQ27" t="n" s="10">
-        <v>519.923</v>
+        <v>519.922</v>
       </c>
       <c r="BR27" t="n" s="10">
-        <v>524.734</v>
+        <v>524.796</v>
       </c>
       <c r="BS27" t="n" s="10">
-        <v>524.796</v>
+        <v>524.789</v>
       </c>
       <c r="BT27" t="n" s="10">
-        <v>533.232</v>
+        <v>533.163</v>
       </c>
       <c r="BU27" t="n" s="10">
-        <v>524.649</v>
+        <v>524.669</v>
       </c>
       <c r="BV27" t="n" s="10">
-        <v>512.165</v>
+        <v>512.221</v>
       </c>
       <c r="BW27" t="n" s="10">
-        <v>495.574</v>
+        <v>495.57</v>
       </c>
       <c r="BX27" t="n" s="10">
-        <v>499.14</v>
+        <v>499.063</v>
       </c>
       <c r="BY27" t="n" s="10">
-        <v>509.73</v>
+        <v>509.76</v>
       </c>
       <c r="BZ27" t="n" s="10">
-        <v>512.42</v>
+        <v>512.472</v>
       </c>
       <c r="CA27" t="n" s="10">
-        <v>515.128</v>
+        <v>515.126</v>
       </c>
       <c r="CB27" t="n" s="10">
-        <v>525.568</v>
+        <v>525.482</v>
       </c>
       <c r="CC27" t="n" s="10">
-        <v>532.868</v>
+        <v>532.908</v>
       </c>
       <c r="CD27" t="n" s="10">
-        <v>544.396</v>
+        <v>544.443</v>
       </c>
       <c r="CE27" t="n" s="10">
-        <v>555.488</v>
+        <v>555.492</v>
       </c>
       <c r="CF27" t="n" s="10">
-        <v>559.701</v>
+        <v>559.609</v>
       </c>
       <c r="CG27" t="n" s="10">
-        <v>568.179</v>
+        <v>568.212</v>
       </c>
       <c r="CH27" t="n" s="10">
-        <v>568.414</v>
+        <v>568.469</v>
       </c>
       <c r="CI27" t="n" s="10">
-        <v>569.976</v>
+        <v>569.981</v>
       </c>
       <c r="CJ27" t="n" s="10">
-        <v>566.684</v>
+        <v>566.591</v>
       </c>
       <c r="CK27" t="n" s="10">
-        <v>571.828</v>
+        <v>571.86</v>
       </c>
       <c r="CL27" t="n" s="10">
-        <v>572.034</v>
+        <v>572.09</v>
       </c>
       <c r="CM27" t="n" s="10">
-        <v>565.644</v>
+        <v>565.649</v>
       </c>
       <c r="CN27" t="n" s="10">
-        <v>583.575</v>
+        <v>583.488</v>
       </c>
       <c r="CO27" t="n" s="10">
-        <v>587.013</v>
+        <v>587.036</v>
       </c>
       <c r="CP27" t="n" s="10">
-        <v>588.177</v>
+        <v>588.236</v>
       </c>
       <c r="CQ27" t="n" s="10">
         <v>596.639</v>
       </c>
       <c r="CR27" t="n" s="10">
-        <v>600.869</v>
+        <v>600.799</v>
       </c>
       <c r="CS27" t="n" s="10">
-        <v>611.075</v>
+        <v>611.101</v>
       </c>
       <c r="CT27" t="n" s="10">
-        <v>616.464</v>
+        <v>616.507</v>
       </c>
       <c r="CU27" t="n" s="10">
-        <v>613.932</v>
+        <v>613.914</v>
       </c>
       <c r="CV27" t="n" s="10">
-        <v>624.124</v>
+        <v>624.109</v>
       </c>
       <c r="CW27" t="n" s="10">
-        <v>637.794</v>
+        <v>637.824</v>
       </c>
       <c r="CX27" t="n" s="10">
-        <v>639.62</v>
+        <v>639.624</v>
       </c>
       <c r="CY27" t="n" s="10">
-        <v>642.087</v>
+        <v>642.038</v>
       </c>
       <c r="CZ27" t="n" s="10">
-        <v>661.612</v>
+        <v>661.665</v>
       </c>
       <c r="DA27" t="n" s="10">
-        <v>651.681</v>
+        <v>651.735</v>
       </c>
       <c r="DB27" t="n" s="10">
-        <v>661.541</v>
+        <v>661.482</v>
       </c>
       <c r="DC27" t="n" s="10">
-        <v>670.363</v>
+        <v>670.233</v>
       </c>
       <c r="DD27" t="n" s="10">
-        <v>670.16</v>
+        <v>670.31</v>
       </c>
       <c r="DE27" t="n" s="10">
-        <v>685.601</v>
+        <v>685.676</v>
       </c>
       <c r="DF27" t="n" s="10">
-        <v>690.772</v>
+        <v>690.676</v>
       </c>
       <c r="DG27" t="n" s="10">
-        <v>697.531</v>
+        <v>697.264</v>
       </c>
       <c r="DH27" t="n" s="10">
-        <v>707.711</v>
+        <v>707.972</v>
       </c>
       <c r="DI27" t="n" s="10">
-        <v>702.954</v>
+        <v>703.06</v>
       </c>
       <c r="DJ27" t="n" s="10">
-        <v>713.662</v>
+        <v>713.56</v>
       </c>
       <c r="DK27" t="n" s="10">
-        <v>724.087</v>
+        <v>723.642</v>
       </c>
       <c r="DL27" t="n" s="10">
-        <v>720.739</v>
+        <v>721.131</v>
       </c>
       <c r="DM27" t="n" s="10">
-        <v>729.685</v>
+        <v>729.82</v>
       </c>
       <c r="DN27" t="n" s="10">
-        <v>728.769</v>
+        <v>728.686</v>
       </c>
       <c r="DO27" t="n" s="10">
-        <v>720.49</v>
+        <v>719.851</v>
       </c>
       <c r="DP27" t="n" s="10">
-        <v>629.293</v>
+        <v>629.821</v>
       </c>
       <c r="DQ27" t="n" s="10">
-        <v>694.675</v>
+        <v>694.853</v>
       </c>
       <c r="DR27" t="n" s="10">
-        <v>710.125</v>
+        <v>710.058</v>
       </c>
       <c r="DS27" t="n" s="10">
-        <v>705.573</v>
+        <v>706.102</v>
       </c>
       <c r="DT27" t="n" s="10">
-        <v>715.937</v>
+        <v>719.165</v>
       </c>
       <c r="DU27" t="n" s="10">
-        <v>749.09</v>
-      </c>
-      <c r="DV27" t="s" s="10">
-        <v>43</v>
+        <v>750.76</v>
+      </c>
+      <c r="DV27" t="n" s="10">
+        <v>760.698</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s" s="13">
         <v>42</v>
       </c>
       <c r="C28" t="n" s="10">
-        <v>34.417</v>
+        <v>34.428</v>
       </c>
       <c r="D28" t="n" s="10">
-        <v>36.162</v>
+        <v>36.164</v>
       </c>
       <c r="E28" t="n" s="10">
-        <v>36.693</v>
+        <v>36.682</v>
       </c>
       <c r="F28" t="n" s="10">
-        <v>32.609</v>
+        <v>32.606</v>
       </c>
       <c r="G28" t="n" s="10">
-        <v>42.059</v>
+        <v>42.07</v>
       </c>
       <c r="H28" t="n" s="10">
-        <v>36.589</v>
+        <v>36.594</v>
       </c>
       <c r="I28" t="n" s="10">
-        <v>36.138</v>
+        <v>36.125</v>
       </c>
       <c r="J28" t="n" s="10">
-        <v>27.826</v>
+        <v>27.823</v>
       </c>
       <c r="K28" t="n" s="10">
-        <v>31.844</v>
+        <v>31.854</v>
       </c>
       <c r="L28" t="n" s="10">
-        <v>30.684</v>
+        <v>30.694</v>
       </c>
       <c r="M28" t="n" s="10">
-        <v>28.627</v>
+        <v>28.611</v>
       </c>
       <c r="N28" t="n" s="10">
-        <v>26.291</v>
+        <v>26.287</v>
       </c>
       <c r="O28" t="n" s="10">
-        <v>29.362</v>
+        <v>29.373</v>
       </c>
       <c r="P28" t="n" s="10">
-        <v>31.237</v>
+        <v>31.251</v>
       </c>
       <c r="Q28" t="n" s="10">
-        <v>29.959</v>
+        <v>29.94</v>
       </c>
       <c r="R28" t="n" s="10">
-        <v>30.13</v>
+        <v>30.125</v>
       </c>
       <c r="S28" t="n" s="10">
-        <v>36.562</v>
+        <v>36.575</v>
       </c>
       <c r="T28" t="n" s="10">
+        <v>31.905</v>
+      </c>
+      <c r="U28" t="n" s="10">
+        <v>30.059</v>
+      </c>
+      <c r="V28" t="n" s="10">
+        <v>29.923</v>
+      </c>
+      <c r="W28" t="n" s="10">
+        <v>28.259</v>
+      </c>
+      <c r="X28" t="n" s="10">
+        <v>27.495</v>
+      </c>
+      <c r="Y28" t="n" s="10">
+        <v>28.915</v>
+      </c>
+      <c r="Z28" t="n" s="10">
+        <v>32.285</v>
+      </c>
+      <c r="AA28" t="n" s="10">
+        <v>21.829</v>
+      </c>
+      <c r="AB28" t="n" s="10">
+        <v>32.288</v>
+      </c>
+      <c r="AC28" t="n" s="10">
+        <v>33.024</v>
+      </c>
+      <c r="AD28" t="n" s="10">
+        <v>35.919</v>
+      </c>
+      <c r="AE28" t="n" s="10">
+        <v>34.713</v>
+      </c>
+      <c r="AF28" t="n" s="10">
+        <v>34.477</v>
+      </c>
+      <c r="AG28" t="n" s="10">
+        <v>33.528</v>
+      </c>
+      <c r="AH28" t="n" s="10">
+        <v>33.555</v>
+      </c>
+      <c r="AI28" t="n" s="10">
+        <v>28.285</v>
+      </c>
+      <c r="AJ28" t="n" s="10">
+        <v>30.947</v>
+      </c>
+      <c r="AK28" t="n" s="10">
+        <v>30.451</v>
+      </c>
+      <c r="AL28" t="n" s="10">
+        <v>34.219</v>
+      </c>
+      <c r="AM28" t="n" s="10">
+        <v>35.648</v>
+      </c>
+      <c r="AN28" t="n" s="10">
+        <v>30.068</v>
+      </c>
+      <c r="AO28" t="n" s="10">
+        <v>27.093</v>
+      </c>
+      <c r="AP28" t="n" s="10">
+        <v>30.328</v>
+      </c>
+      <c r="AQ28" t="n" s="10">
+        <v>32.855</v>
+      </c>
+      <c r="AR28" t="n" s="10">
+        <v>28.084</v>
+      </c>
+      <c r="AS28" t="n" s="10">
+        <v>31.036</v>
+      </c>
+      <c r="AT28" t="n" s="10">
         <v>31.892</v>
       </c>
-      <c r="U28" t="n" s="10">
-        <v>30.081</v>
-      </c>
-      <c r="V28" t="n" s="10">
-        <v>29.926</v>
-      </c>
-      <c r="W28" t="n" s="10">
-        <v>28.245</v>
-      </c>
-      <c r="X28" t="n" s="10">
-        <v>27.483</v>
-      </c>
-      <c r="Y28" t="n" s="10">
-        <v>28.938</v>
-      </c>
-      <c r="Z28" t="n" s="10">
-        <v>32.288</v>
-      </c>
-      <c r="AA28" t="n" s="10">
-        <v>21.813</v>
-      </c>
-      <c r="AB28" t="n" s="10">
-        <v>32.279</v>
-      </c>
-      <c r="AC28" t="n" s="10">
-        <v>33.047</v>
-      </c>
-      <c r="AD28" t="n" s="10">
-        <v>35.921</v>
-      </c>
-      <c r="AE28" t="n" s="10">
-        <v>34.698</v>
-      </c>
-      <c r="AF28" t="n" s="10">
-        <v>34.47</v>
-      </c>
-      <c r="AG28" t="n" s="10">
-        <v>33.549</v>
-      </c>
-      <c r="AH28" t="n" s="10">
-        <v>33.558</v>
-      </c>
-      <c r="AI28" t="n" s="10">
-        <v>28.273</v>
-      </c>
-      <c r="AJ28" t="n" s="10">
-        <v>30.941</v>
-      </c>
-      <c r="AK28" t="n" s="10">
-        <v>30.474</v>
-      </c>
-      <c r="AL28" t="n" s="10">
-        <v>34.214</v>
-      </c>
-      <c r="AM28" t="n" s="10">
-        <v>35.645</v>
-      </c>
-      <c r="AN28" t="n" s="10">
-        <v>30.059</v>
-      </c>
-      <c r="AO28" t="n" s="10">
-        <v>27.118</v>
-      </c>
-      <c r="AP28" t="n" s="10">
-        <v>30.314</v>
-      </c>
-      <c r="AQ28" t="n" s="10">
-        <v>32.86</v>
-      </c>
-      <c r="AR28" t="n" s="10">
-        <v>28.081</v>
-      </c>
-      <c r="AS28" t="n" s="10">
-        <v>31.063</v>
-      </c>
-      <c r="AT28" t="n" s="10">
-        <v>31.862</v>
-      </c>
       <c r="AU28" t="n" s="10">
-        <v>27.864</v>
+        <v>27.849</v>
       </c>
       <c r="AV28" t="n" s="10">
-        <v>30.366</v>
+        <v>30.36</v>
       </c>
       <c r="AW28" t="n" s="10">
-        <v>36.437</v>
+        <v>36.415</v>
       </c>
       <c r="AX28" t="n" s="10">
-        <v>28.54</v>
+        <v>28.583</v>
       </c>
       <c r="AY28" t="n" s="10">
-        <v>24.503</v>
+        <v>24.484</v>
       </c>
       <c r="AZ28" t="n" s="10">
-        <v>22.25</v>
+        <v>22.234</v>
       </c>
       <c r="BA28" t="n" s="10">
-        <v>26.946</v>
+        <v>26.927</v>
       </c>
       <c r="BB28" t="n" s="10">
-        <v>30.172</v>
+        <v>30.225</v>
       </c>
       <c r="BC28" t="n" s="10">
-        <v>38.733</v>
+        <v>38.712</v>
       </c>
       <c r="BD28" t="n" s="10">
-        <v>42.731</v>
+        <v>42.711</v>
       </c>
       <c r="BE28" t="n" s="10">
-        <v>41.281</v>
+        <v>41.266</v>
       </c>
       <c r="BF28" t="n" s="10">
-        <v>42.327</v>
+        <v>42.385</v>
       </c>
       <c r="BG28" t="n" s="10">
-        <v>33.303</v>
+        <v>33.28</v>
       </c>
       <c r="BH28" t="n" s="10">
-        <v>42.87</v>
+        <v>42.849</v>
       </c>
       <c r="BI28" t="n" s="10">
-        <v>40.77</v>
+        <v>40.755</v>
       </c>
       <c r="BJ28" t="n" s="10">
-        <v>43.478</v>
+        <v>43.535</v>
       </c>
       <c r="BK28" t="n" s="10">
-        <v>50.298</v>
+        <v>50.279</v>
       </c>
       <c r="BL28" t="n" s="10">
-        <v>57.832</v>
+        <v>57.799</v>
       </c>
       <c r="BM28" t="n" s="10">
-        <v>57.548</v>
+        <v>57.541</v>
       </c>
       <c r="BN28" t="n" s="10">
-        <v>61.922</v>
+        <v>61.98</v>
       </c>
       <c r="BO28" t="n" s="10">
-        <v>74.107</v>
+        <v>74.094</v>
       </c>
       <c r="BP28" t="n" s="10">
-        <v>71.162</v>
+        <v>71.114</v>
       </c>
       <c r="BQ28" t="n" s="10">
-        <v>70.202</v>
+        <v>70.201</v>
       </c>
       <c r="BR28" t="n" s="10">
-        <v>69.395</v>
+        <v>69.457</v>
       </c>
       <c r="BS28" t="n" s="10">
-        <v>68.675</v>
+        <v>68.668</v>
       </c>
       <c r="BT28" t="n" s="10">
-        <v>70.254</v>
+        <v>70.185</v>
       </c>
       <c r="BU28" t="n" s="10">
-        <v>61.019</v>
+        <v>61.039</v>
       </c>
       <c r="BV28" t="n" s="10">
-        <v>49.191</v>
+        <v>49.247</v>
       </c>
       <c r="BW28" t="n" s="10">
-        <v>29.816</v>
+        <v>29.812</v>
       </c>
       <c r="BX28" t="n" s="10">
-        <v>31.427</v>
+        <v>31.35</v>
       </c>
       <c r="BY28" t="n" s="10">
-        <v>41.941</v>
+        <v>41.971</v>
       </c>
       <c r="BZ28" t="n" s="10">
-        <v>44.35</v>
+        <v>44.402</v>
       </c>
       <c r="CA28" t="n" s="10">
-        <v>42.468</v>
+        <v>42.466</v>
       </c>
       <c r="CB28" t="n" s="10">
-        <v>49.948</v>
+        <v>49.862</v>
       </c>
       <c r="CC28" t="n" s="10">
-        <v>51.982</v>
+        <v>52.022</v>
       </c>
       <c r="CD28" t="n" s="10">
-        <v>58.676</v>
+        <v>58.723</v>
       </c>
       <c r="CE28" t="n" s="10">
-        <v>66.789</v>
+        <v>66.793</v>
       </c>
       <c r="CF28" t="n" s="10">
-        <v>66.393</v>
+        <v>66.301</v>
       </c>
       <c r="CG28" t="n" s="10">
-        <v>71.906</v>
+        <v>71.939</v>
       </c>
       <c r="CH28" t="n" s="10">
-        <v>68.097</v>
+        <v>68.152</v>
       </c>
       <c r="CI28" t="n" s="10">
-        <v>62.365</v>
+        <v>62.37</v>
       </c>
       <c r="CJ28" t="n" s="10">
-        <v>59.985</v>
+        <v>59.892</v>
       </c>
       <c r="CK28" t="n" s="10">
-        <v>63.253</v>
+        <v>63.285</v>
       </c>
       <c r="CL28" t="n" s="10">
-        <v>58.343</v>
+        <v>58.399</v>
       </c>
       <c r="CM28" t="n" s="10">
-        <v>49.174</v>
+        <v>49.179</v>
       </c>
       <c r="CN28" t="n" s="10">
-        <v>64.028</v>
+        <v>63.941</v>
       </c>
       <c r="CO28" t="n" s="10">
-        <v>62.298</v>
+        <v>62.321</v>
       </c>
       <c r="CP28" t="n" s="10">
-        <v>63.231</v>
+        <v>63.29</v>
       </c>
       <c r="CQ28" t="n" s="10">
         <v>67.939</v>
       </c>
       <c r="CR28" t="n" s="10">
-        <v>69.591</v>
+        <v>69.521</v>
       </c>
       <c r="CS28" t="n" s="10">
-        <v>73.766</v>
+        <v>73.792</v>
       </c>
       <c r="CT28" t="n" s="10">
-        <v>76.397</v>
+        <v>76.44</v>
       </c>
       <c r="CU28" t="n" s="10">
-        <v>72.102</v>
+        <v>72.084</v>
       </c>
       <c r="CV28" t="n" s="10">
-        <v>77.555</v>
+        <v>77.54</v>
       </c>
       <c r="CW28" t="n" s="10">
-        <v>85.193</v>
+        <v>85.223</v>
       </c>
       <c r="CX28" t="n" s="10">
-        <v>81.744</v>
+        <v>81.748</v>
       </c>
       <c r="CY28" t="n" s="10">
-        <v>80.789</v>
+        <v>80.74</v>
       </c>
       <c r="CZ28" t="n" s="10">
-        <v>92.677</v>
+        <v>92.73</v>
       </c>
       <c r="DA28" t="n" s="10">
-        <v>80.378</v>
+        <v>80.432</v>
       </c>
       <c r="DB28" t="n" s="10">
-        <v>85.511</v>
+        <v>85.452</v>
       </c>
       <c r="DC28" t="n" s="10">
-        <v>89.065</v>
+        <v>88.935</v>
       </c>
       <c r="DD28" t="n" s="10">
-        <v>85.443</v>
+        <v>85.593</v>
       </c>
       <c r="DE28" t="n" s="10">
-        <v>95.289</v>
+        <v>95.364</v>
       </c>
       <c r="DF28" t="n" s="10">
-        <v>96.414</v>
+        <v>96.318</v>
       </c>
       <c r="DG28" t="n" s="10">
-        <v>96.94</v>
+        <v>96.673</v>
       </c>
       <c r="DH28" t="n" s="10">
-        <v>104.044</v>
+        <v>104.305</v>
       </c>
       <c r="DI28" t="n" s="10">
-        <v>97.665</v>
+        <v>97.771</v>
       </c>
       <c r="DJ28" t="n" s="10">
-        <v>100.787</v>
+        <v>100.685</v>
       </c>
       <c r="DK28" t="n" s="10">
-        <v>105.494</v>
+        <v>105.049</v>
       </c>
       <c r="DL28" t="n" s="10">
-        <v>95.762</v>
+        <v>96.154</v>
       </c>
       <c r="DM28" t="n" s="10">
-        <v>98.188</v>
+        <v>98.323</v>
       </c>
       <c r="DN28" t="n" s="10">
-        <v>95.729</v>
+        <v>95.646</v>
       </c>
       <c r="DO28" t="n" s="10">
-        <v>90.668</v>
+        <v>90.029</v>
       </c>
       <c r="DP28" t="n" s="10">
-        <v>45.621</v>
+        <v>46.149</v>
       </c>
       <c r="DQ28" t="n" s="10">
-        <v>67.362</v>
+        <v>67.54</v>
       </c>
       <c r="DR28" t="n" s="10">
-        <v>88.378</v>
+        <v>88.311</v>
       </c>
       <c r="DS28" t="n" s="10">
-        <v>97.761</v>
+        <v>97.914</v>
       </c>
       <c r="DT28" t="n" s="10">
-        <v>86.169</v>
+        <v>89.466</v>
       </c>
       <c r="DU28" t="n" s="10">
-        <v>84.607</v>
-      </c>
-      <c r="DV28" t="s" s="10">
-        <v>43</v>
+        <v>89.139</v>
+      </c>
+      <c r="DV28" t="n" s="10">
+        <v>95.879</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s" s="13">
         <v>42</v>
       </c>
       <c r="C29" t="n" s="10">
-        <v>-9.167</v>
+        <v>-9.156</v>
       </c>
       <c r="D29" t="n" s="10">
-        <v>-7.484</v>
+        <v>-7.482</v>
       </c>
       <c r="E29" t="n" s="10">
-        <v>-4.1</v>
+        <v>-4.111</v>
       </c>
       <c r="F29" t="n" s="10">
-        <v>-9.089</v>
+        <v>-9.092</v>
       </c>
       <c r="G29" t="n" s="10">
-        <v>-3.575</v>
+        <v>-3.564</v>
       </c>
       <c r="H29" t="n" s="10">
-        <v>-7.639</v>
+        <v>-7.634</v>
       </c>
       <c r="I29" t="n" s="10">
-        <v>-1.434</v>
+        <v>-1.447</v>
       </c>
       <c r="J29" t="n" s="10">
-        <v>-8.477</v>
+        <v>-8.48</v>
       </c>
       <c r="K29" t="n" s="10">
-        <v>-0.845</v>
+        <v>-0.835</v>
       </c>
       <c r="L29" t="n" s="10">
-        <v>-4.474</v>
+        <v>-4.464</v>
       </c>
       <c r="M29" t="n" s="10">
-        <v>-6.034</v>
+        <v>-6.05</v>
       </c>
       <c r="N29" t="n" s="10">
-        <v>-4.869</v>
+        <v>-4.873</v>
       </c>
       <c r="O29" t="n" s="10">
-        <v>-4.202</v>
+        <v>-4.191</v>
       </c>
       <c r="P29" t="n" s="10">
-        <v>-5.285</v>
+        <v>-5.271</v>
       </c>
       <c r="Q29" t="n" s="10">
-        <v>-7.833</v>
+        <v>-7.852</v>
       </c>
       <c r="R29" t="n" s="10">
-        <v>-11.81</v>
+        <v>-11.815</v>
       </c>
       <c r="S29" t="n" s="10">
-        <v>-2.26</v>
+        <v>-2.247</v>
       </c>
       <c r="T29" t="n" s="10">
-        <v>-9.227</v>
+        <v>-9.214</v>
       </c>
       <c r="U29" t="n" s="10">
-        <v>-8.742</v>
+        <v>-8.764</v>
       </c>
       <c r="V29" t="n" s="10">
-        <v>-5.77</v>
+        <v>-5.773</v>
       </c>
       <c r="W29" t="n" s="10">
-        <v>-2.705</v>
+        <v>-2.691</v>
       </c>
       <c r="X29" t="n" s="10">
-        <v>-7.491</v>
+        <v>-7.479</v>
       </c>
       <c r="Y29" t="n" s="10">
-        <v>-4.508</v>
+        <v>-4.531</v>
       </c>
       <c r="Z29" t="n" s="10">
-        <v>-2.359</v>
+        <v>-2.362</v>
       </c>
       <c r="AA29" t="n" s="10">
-        <v>-10.871</v>
+        <v>-10.855</v>
       </c>
       <c r="AB29" t="n" s="10">
-        <v>-1.522</v>
+        <v>-1.513</v>
       </c>
       <c r="AC29" t="n" s="10">
-        <v>-0.964</v>
+        <v>-0.987</v>
       </c>
       <c r="AD29" t="n" s="10">
-        <v>1.31</v>
+        <v>1.308</v>
       </c>
       <c r="AE29" t="n" s="10">
-        <v>-5.031</v>
+        <v>-5.016</v>
       </c>
       <c r="AF29" t="n" s="10">
-        <v>-4.187</v>
+        <v>-4.18</v>
       </c>
       <c r="AG29" t="n" s="10">
-        <v>-3.318</v>
+        <v>-3.339</v>
       </c>
       <c r="AH29" t="n" s="10">
-        <v>-1.199</v>
+        <v>-1.202</v>
       </c>
       <c r="AI29" t="n" s="10">
-        <v>-9.963</v>
+        <v>-9.951</v>
       </c>
       <c r="AJ29" t="n" s="10">
-        <v>-3.658</v>
+        <v>-3.652</v>
       </c>
       <c r="AK29" t="n" s="10">
-        <v>-9.168</v>
+        <v>-9.191</v>
       </c>
       <c r="AL29" t="n" s="10">
-        <v>-4.976</v>
+        <v>-4.971</v>
       </c>
       <c r="AM29" t="n" s="10">
-        <v>-2.802</v>
+        <v>-2.799</v>
       </c>
       <c r="AN29" t="n" s="10">
-        <v>-9.525</v>
+        <v>-9.516</v>
       </c>
       <c r="AO29" t="n" s="10">
-        <v>-16.192</v>
+        <v>-16.217</v>
       </c>
       <c r="AP29" t="n" s="10">
-        <v>-12.526</v>
+        <v>-12.512</v>
       </c>
       <c r="AQ29" t="n" s="10">
-        <v>-3.953</v>
+        <v>-3.958</v>
       </c>
       <c r="AR29" t="n" s="10">
-        <v>-7.857</v>
+        <v>-7.854</v>
       </c>
       <c r="AS29" t="n" s="10">
-        <v>-5.261</v>
+        <v>-5.288</v>
       </c>
       <c r="AT29" t="n" s="10">
-        <v>4.898</v>
+        <v>4.928</v>
       </c>
       <c r="AU29" t="n" s="10">
-        <v>5.865</v>
+        <v>5.85</v>
       </c>
       <c r="AV29" t="n" s="10">
-        <v>7.785</v>
+        <v>7.779</v>
       </c>
       <c r="AW29" t="n" s="10">
-        <v>14.464</v>
+        <v>14.442</v>
       </c>
       <c r="AX29" t="n" s="10">
-        <v>7.64</v>
+        <v>7.683</v>
       </c>
       <c r="AY29" t="n" s="10">
-        <v>3.782</v>
+        <v>3.763</v>
       </c>
       <c r="AZ29" t="n" s="10">
-        <v>2.638</v>
+        <v>2.622</v>
       </c>
       <c r="BA29" t="n" s="10">
-        <v>10.76</v>
+        <v>10.741</v>
       </c>
       <c r="BB29" t="n" s="10">
-        <v>18.127</v>
+        <v>18.18</v>
       </c>
       <c r="BC29" t="n" s="10">
-        <v>25.044</v>
+        <v>25.023</v>
       </c>
       <c r="BD29" t="n" s="10">
-        <v>29.339</v>
+        <v>29.319</v>
       </c>
       <c r="BE29" t="n" s="10">
-        <v>23.255</v>
+        <v>23.24</v>
       </c>
       <c r="BF29" t="n" s="10">
-        <v>26.439</v>
+        <v>26.497</v>
       </c>
       <c r="BG29" t="n" s="10">
-        <v>26.671</v>
+        <v>26.648</v>
       </c>
       <c r="BH29" t="n" s="10">
-        <v>29.671</v>
+        <v>29.65</v>
       </c>
       <c r="BI29" t="n" s="10">
-        <v>25.78</v>
+        <v>25.765</v>
       </c>
       <c r="BJ29" t="n" s="10">
-        <v>24.15</v>
+        <v>24.207</v>
       </c>
       <c r="BK29" t="n" s="10">
-        <v>31.887</v>
+        <v>31.868</v>
       </c>
       <c r="BL29" t="n" s="10">
-        <v>33.128</v>
+        <v>33.095</v>
       </c>
       <c r="BM29" t="n" s="10">
-        <v>32.246</v>
+        <v>32.239</v>
       </c>
       <c r="BN29" t="n" s="10">
-        <v>41.355</v>
+        <v>41.413</v>
       </c>
       <c r="BO29" t="n" s="10">
-        <v>42.249</v>
+        <v>42.236</v>
       </c>
       <c r="BP29" t="n" s="10">
-        <v>44.768</v>
+        <v>44.72</v>
       </c>
       <c r="BQ29" t="n" s="10">
-        <v>43.404</v>
+        <v>43.403</v>
       </c>
       <c r="BR29" t="n" s="10">
-        <v>40.695</v>
+        <v>40.757</v>
       </c>
       <c r="BS29" t="n" s="10">
-        <v>37.942</v>
+        <v>37.935</v>
       </c>
       <c r="BT29" t="n" s="10">
-        <v>45.03</v>
+        <v>44.961</v>
       </c>
       <c r="BU29" t="n" s="10">
-        <v>32.692</v>
+        <v>32.712</v>
       </c>
       <c r="BV29" t="n" s="10">
-        <v>25.974</v>
+        <v>26.03</v>
       </c>
       <c r="BW29" t="n" s="10">
-        <v>25.457</v>
+        <v>25.453</v>
       </c>
       <c r="BX29" t="n" s="10">
-        <v>34.786</v>
+        <v>34.709</v>
       </c>
       <c r="BY29" t="n" s="10">
-        <v>40.364</v>
+        <v>40.394</v>
       </c>
       <c r="BZ29" t="n" s="10">
-        <v>43.894</v>
+        <v>43.946</v>
       </c>
       <c r="CA29" t="n" s="10">
-        <v>35.452</v>
+        <v>35.45</v>
       </c>
       <c r="CB29" t="n" s="10">
-        <v>36.626</v>
+        <v>36.54</v>
       </c>
       <c r="CC29" t="n" s="10">
-        <v>36.337</v>
+        <v>36.377</v>
       </c>
       <c r="CD29" t="n" s="10">
-        <v>43.196</v>
+        <v>43.243</v>
       </c>
       <c r="CE29" t="n" s="10">
-        <v>42.586</v>
+        <v>42.59</v>
       </c>
       <c r="CF29" t="n" s="10">
-        <v>35.877</v>
+        <v>35.785</v>
       </c>
       <c r="CG29" t="n" s="10">
-        <v>43.346</v>
+        <v>43.379</v>
       </c>
       <c r="CH29" t="n" s="10">
-        <v>41.337</v>
+        <v>41.392</v>
       </c>
       <c r="CI29" t="n" s="10">
-        <v>46.154</v>
+        <v>46.159</v>
       </c>
       <c r="CJ29" t="n" s="10">
-        <v>48.724</v>
+        <v>48.631</v>
       </c>
       <c r="CK29" t="n" s="10">
-        <v>52.927</v>
+        <v>52.959</v>
       </c>
       <c r="CL29" t="n" s="10">
-        <v>45.999</v>
+        <v>46.055</v>
       </c>
       <c r="CM29" t="n" s="10">
-        <v>38.796</v>
+        <v>38.801</v>
       </c>
       <c r="CN29" t="n" s="10">
-        <v>47.282</v>
+        <v>47.195</v>
       </c>
       <c r="CO29" t="n" s="10">
-        <v>44.567</v>
+        <v>44.59</v>
       </c>
       <c r="CP29" t="n" s="10">
-        <v>50.141</v>
+        <v>50.2</v>
       </c>
       <c r="CQ29" t="n" s="10">
         <v>47.618</v>
       </c>
       <c r="CR29" t="n" s="10">
-        <v>47.535</v>
+        <v>47.465</v>
       </c>
       <c r="CS29" t="n" s="10">
-        <v>57.105</v>
+        <v>57.131</v>
       </c>
       <c r="CT29" t="n" s="10">
-        <v>61.315</v>
+        <v>61.358</v>
       </c>
       <c r="CU29" t="n" s="10">
-        <v>55.442</v>
+        <v>55.424</v>
       </c>
       <c r="CV29" t="n" s="10">
-        <v>66.338</v>
+        <v>66.323</v>
       </c>
       <c r="CW29" t="n" s="10">
-        <v>70.437</v>
+        <v>70.467</v>
       </c>
       <c r="CX29" t="n" s="10">
-        <v>69.183</v>
+        <v>69.187</v>
       </c>
       <c r="CY29" t="n" s="10">
-        <v>58.902</v>
+        <v>58.853</v>
       </c>
       <c r="CZ29" t="n" s="10">
-        <v>79.139</v>
+        <v>79.192</v>
       </c>
       <c r="DA29" t="n" s="10">
-        <v>63.008</v>
+        <v>63.062</v>
       </c>
       <c r="DB29" t="n" s="10">
-        <v>67.891</v>
+        <v>67.832</v>
       </c>
       <c r="DC29" t="n" s="10">
-        <v>63.508</v>
+        <v>63.378</v>
       </c>
       <c r="DD29" t="n" s="10">
-        <v>55.683</v>
+        <v>55.833</v>
       </c>
       <c r="DE29" t="n" s="10">
-        <v>67.168</v>
+        <v>67.243</v>
       </c>
       <c r="DF29" t="n" s="10">
-        <v>66.959</v>
+        <v>66.863</v>
       </c>
       <c r="DG29" t="n" s="10">
-        <v>72.183</v>
+        <v>71.916</v>
       </c>
       <c r="DH29" t="n" s="10">
-        <v>72.733</v>
+        <v>72.994</v>
       </c>
       <c r="DI29" t="n" s="10">
-        <v>56.694</v>
+        <v>56.8</v>
       </c>
       <c r="DJ29" t="n" s="10">
-        <v>63.791</v>
+        <v>63.689</v>
       </c>
       <c r="DK29" t="n" s="10">
-        <v>68.065</v>
+        <v>67.62</v>
       </c>
       <c r="DL29" t="n" s="10">
-        <v>59.216</v>
+        <v>59.608</v>
       </c>
       <c r="DM29" t="n" s="10">
-        <v>66.251</v>
+        <v>66.386</v>
       </c>
       <c r="DN29" t="n" s="10">
-        <v>63.53</v>
+        <v>63.447</v>
       </c>
       <c r="DO29" t="n" s="10">
-        <v>55.246</v>
+        <v>54.607</v>
       </c>
       <c r="DP29" t="n" s="10">
-        <v>38.243</v>
+        <v>38.771</v>
       </c>
       <c r="DQ29" t="n" s="10">
-        <v>60.417</v>
+        <v>60.595</v>
       </c>
       <c r="DR29" t="n" s="10">
-        <v>75.333</v>
+        <v>75.266</v>
       </c>
       <c r="DS29" t="n" s="10">
-        <v>65.609</v>
+        <v>65.752</v>
       </c>
       <c r="DT29" t="n" s="10">
-        <v>57.325</v>
+        <v>60.849</v>
       </c>
       <c r="DU29" t="n" s="10">
-        <v>56.193</v>
-      </c>
-      <c r="DV29" t="s" s="10">
-        <v>43</v>
+        <v>61.592</v>
+      </c>
+      <c r="DV29" t="n" s="10">
+        <v>59.921</v>
       </c>
     </row>
     <row r="30" ht="33.75" customHeight="true">
       <c r="A30" t="s" s="14">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31">
@@ -12144,60 +12141,60 @@
         <v>822.44</v>
       </c>
       <c r="DF31" t="n" s="10">
-        <v>829.378</v>
+        <v>829.379</v>
       </c>
       <c r="DG31" t="n" s="10">
-        <v>831.568</v>
+        <v>831.569</v>
       </c>
       <c r="DH31" t="n" s="10">
-        <v>842.942</v>
+        <v>842.924</v>
       </c>
       <c r="DI31" t="n" s="10">
-        <v>841.813</v>
+        <v>841.817</v>
       </c>
       <c r="DJ31" t="n" s="10">
-        <v>849.847</v>
+        <v>849.891</v>
       </c>
       <c r="DK31" t="n" s="10">
-        <v>859.391</v>
+        <v>859.421</v>
       </c>
       <c r="DL31" t="n" s="10">
-        <v>866.119</v>
+        <v>865.744</v>
       </c>
       <c r="DM31" t="n" s="10">
-        <v>874.896</v>
+        <v>874.801</v>
       </c>
       <c r="DN31" t="n" s="10">
-        <v>870.506</v>
+        <v>871.109</v>
       </c>
       <c r="DO31" t="n" s="10">
-        <v>867.652</v>
+        <v>868.223</v>
       </c>
       <c r="DP31" t="n" s="10">
-        <v>792.316</v>
+        <v>790.97</v>
       </c>
       <c r="DQ31" t="n" s="10">
-        <v>850.148</v>
+        <v>849.075</v>
       </c>
       <c r="DR31" t="n" s="10">
-        <v>856.359</v>
+        <v>857.844</v>
       </c>
       <c r="DS31" t="n" s="10">
-        <v>856.685</v>
+        <v>859.282</v>
       </c>
       <c r="DT31" t="n" s="10">
-        <v>881.844</v>
+        <v>882.946</v>
       </c>
       <c r="DU31" t="n" s="10">
-        <v>909.357</v>
-      </c>
-      <c r="DV31" t="s" s="10">
-        <v>43</v>
+        <v>909.866</v>
+      </c>
+      <c r="DV31" t="n" s="10">
+        <v>918.754</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s" s="13">
         <v>42</v>
@@ -12539,45 +12536,45 @@
         <v>60.501</v>
       </c>
       <c r="DK32" t="n" s="10">
-        <v>59.874</v>
+        <v>59.871</v>
       </c>
       <c r="DL32" t="n" s="10">
-        <v>59.761</v>
+        <v>59.753</v>
       </c>
       <c r="DM32" t="n" s="10">
-        <v>57.285</v>
+        <v>57.267</v>
       </c>
       <c r="DN32" t="n" s="10">
-        <v>54.184</v>
+        <v>54.214</v>
       </c>
       <c r="DO32" t="n" s="10">
-        <v>51.258</v>
+        <v>51.27</v>
       </c>
       <c r="DP32" t="n" s="10">
-        <v>48.138</v>
+        <v>48.128</v>
       </c>
       <c r="DQ32" t="n" s="10">
-        <v>48.099</v>
+        <v>48.016</v>
       </c>
       <c r="DR32" t="n" s="10">
-        <v>48.497</v>
+        <v>48.611</v>
       </c>
       <c r="DS32" t="n" s="10">
-        <v>50.198</v>
+        <v>50.247</v>
       </c>
       <c r="DT32" t="n" s="10">
-        <v>52.243</v>
+        <v>52.299</v>
       </c>
       <c r="DU32" t="n" s="10">
-        <v>53.87</v>
-      </c>
-      <c r="DV32" t="s" s="10">
-        <v>43</v>
+        <v>53.952</v>
+      </c>
+      <c r="DV32" t="n" s="10">
+        <v>54.959</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s" s="13">
         <v>42</v>
@@ -12898,66 +12895,66 @@
         <v>33.278</v>
       </c>
       <c r="DD33" t="n" s="10">
-        <v>32.874</v>
+        <v>32.873</v>
       </c>
       <c r="DE33" t="n" s="10">
         <v>32.41</v>
       </c>
       <c r="DF33" t="n" s="10">
-        <v>31.891</v>
+        <v>31.893</v>
       </c>
       <c r="DG33" t="n" s="10">
-        <v>31.632</v>
+        <v>31.636</v>
       </c>
       <c r="DH33" t="n" s="10">
-        <v>32.42</v>
+        <v>32.41</v>
       </c>
       <c r="DI33" t="n" s="10">
-        <v>30.493</v>
+        <v>30.496</v>
       </c>
       <c r="DJ33" t="n" s="10">
-        <v>30.002</v>
+        <v>30.006</v>
       </c>
       <c r="DK33" t="n" s="10">
-        <v>29.685</v>
+        <v>29.692</v>
       </c>
       <c r="DL33" t="n" s="10">
-        <v>33.131</v>
+        <v>33.115</v>
       </c>
       <c r="DM33" t="n" s="10">
-        <v>28.073</v>
+        <v>28.081</v>
       </c>
       <c r="DN33" t="n" s="10">
-        <v>27.1</v>
+        <v>27.09</v>
       </c>
       <c r="DO33" t="n" s="10">
-        <v>26.317</v>
+        <v>26.322</v>
       </c>
       <c r="DP33" t="n" s="10">
-        <v>23.938</v>
+        <v>23.951</v>
       </c>
       <c r="DQ33" t="n" s="10">
-        <v>26.101</v>
+        <v>26.018</v>
       </c>
       <c r="DR33" t="n" s="10">
-        <v>25.66</v>
+        <v>25.588</v>
       </c>
       <c r="DS33" t="n" s="10">
-        <v>24.992</v>
+        <v>24.978</v>
       </c>
       <c r="DT33" t="n" s="10">
-        <v>26.861</v>
+        <v>26.989</v>
       </c>
       <c r="DU33" t="n" s="10">
-        <v>25.45</v>
-      </c>
-      <c r="DV33" t="s" s="10">
-        <v>43</v>
+        <v>25.485</v>
+      </c>
+      <c r="DV33" t="n" s="10">
+        <v>25.875</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s" s="13">
         <v>42</v>
@@ -13278,66 +13275,66 @@
         <v>824.42</v>
       </c>
       <c r="DD34" t="n" s="10">
-        <v>827.177</v>
+        <v>827.178</v>
       </c>
       <c r="DE34" t="n" s="10">
         <v>842.403</v>
       </c>
       <c r="DF34" t="n" s="10">
-        <v>850.161</v>
+        <v>850.16</v>
       </c>
       <c r="DG34" t="n" s="10">
-        <v>855.728</v>
+        <v>855.725</v>
       </c>
       <c r="DH34" t="n" s="10">
-        <v>868.248</v>
+        <v>868.24</v>
       </c>
       <c r="DI34" t="n" s="10">
-        <v>870.275</v>
+        <v>870.276</v>
       </c>
       <c r="DJ34" t="n" s="10">
-        <v>880.346</v>
+        <v>880.386</v>
       </c>
       <c r="DK34" t="n" s="10">
-        <v>889.58</v>
+        <v>889.6</v>
       </c>
       <c r="DL34" t="n" s="10">
-        <v>892.749</v>
+        <v>892.382</v>
       </c>
       <c r="DM34" t="n" s="10">
-        <v>904.108</v>
+        <v>903.987</v>
       </c>
       <c r="DN34" t="n" s="10">
-        <v>897.59</v>
+        <v>898.233</v>
       </c>
       <c r="DO34" t="n" s="10">
-        <v>892.593</v>
+        <v>893.171</v>
       </c>
       <c r="DP34" t="n" s="10">
-        <v>816.516</v>
+        <v>815.147</v>
       </c>
       <c r="DQ34" t="n" s="10">
-        <v>872.146</v>
+        <v>871.073</v>
       </c>
       <c r="DR34" t="n" s="10">
-        <v>879.196</v>
+        <v>880.867</v>
       </c>
       <c r="DS34" t="n" s="10">
-        <v>881.891</v>
+        <v>884.551</v>
       </c>
       <c r="DT34" t="n" s="10">
-        <v>907.226</v>
+        <v>908.256</v>
       </c>
       <c r="DU34" t="n" s="10">
-        <v>937.777</v>
-      </c>
-      <c r="DV34" t="s" s="10">
-        <v>43</v>
+        <v>938.333</v>
+      </c>
+      <c r="DV34" t="n" s="10">
+        <v>947.838</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s" s="13">
         <v>42</v>
@@ -13679,45 +13676,45 @@
         <v>155.456</v>
       </c>
       <c r="DK35" t="n" s="10">
-        <v>157.287</v>
+        <v>157.284</v>
       </c>
       <c r="DL35" t="n" s="10">
-        <v>158.834</v>
+        <v>158.828</v>
       </c>
       <c r="DM35" t="n" s="10">
-        <v>160.734</v>
+        <v>160.727</v>
       </c>
       <c r="DN35" t="n" s="10">
-        <v>162.353</v>
+        <v>162.371</v>
       </c>
       <c r="DO35" t="n" s="10">
-        <v>163.544</v>
+        <v>163.55</v>
       </c>
       <c r="DP35" t="n" s="10">
-        <v>164.387</v>
+        <v>164.286</v>
       </c>
       <c r="DQ35" t="n" s="10">
-        <v>164.839</v>
+        <v>164.824</v>
       </c>
       <c r="DR35" t="n" s="10">
-        <v>165.777</v>
+        <v>165.901</v>
       </c>
       <c r="DS35" t="n" s="10">
-        <v>167.539</v>
+        <v>167.668</v>
       </c>
       <c r="DT35" t="n" s="10">
-        <v>170.29</v>
+        <v>170.22</v>
       </c>
       <c r="DU35" t="n" s="10">
-        <v>176.548</v>
-      </c>
-      <c r="DV35" t="s" s="10">
-        <v>43</v>
+        <v>176.712</v>
+      </c>
+      <c r="DV35" t="n" s="10">
+        <v>179.425</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s" s="13">
         <v>42</v>
@@ -14038,66 +14035,66 @@
         <v>681.394</v>
       </c>
       <c r="DD36" t="n" s="10">
-        <v>682.633</v>
+        <v>682.634</v>
       </c>
       <c r="DE36" t="n" s="10">
         <v>696.358</v>
       </c>
       <c r="DF36" t="n" s="10">
-        <v>702.352</v>
+        <v>702.351</v>
       </c>
       <c r="DG36" t="n" s="10">
-        <v>706.157</v>
+        <v>706.154</v>
       </c>
       <c r="DH36" t="n" s="10">
-        <v>716.835</v>
+        <v>716.827</v>
       </c>
       <c r="DI36" t="n" s="10">
-        <v>716.738</v>
+        <v>716.739</v>
       </c>
       <c r="DJ36" t="n" s="10">
-        <v>724.89</v>
+        <v>724.93</v>
       </c>
       <c r="DK36" t="n" s="10">
-        <v>732.293</v>
+        <v>732.316</v>
       </c>
       <c r="DL36" t="n" s="10">
-        <v>733.915</v>
+        <v>733.554</v>
       </c>
       <c r="DM36" t="n" s="10">
-        <v>743.374</v>
+        <v>743.26</v>
       </c>
       <c r="DN36" t="n" s="10">
-        <v>735.237</v>
+        <v>735.862</v>
       </c>
       <c r="DO36" t="n" s="10">
-        <v>729.049</v>
+        <v>729.621</v>
       </c>
       <c r="DP36" t="n" s="10">
-        <v>652.129</v>
+        <v>650.861</v>
       </c>
       <c r="DQ36" t="n" s="10">
-        <v>707.307</v>
+        <v>706.249</v>
       </c>
       <c r="DR36" t="n" s="10">
-        <v>713.419</v>
+        <v>714.966</v>
       </c>
       <c r="DS36" t="n" s="10">
-        <v>714.352</v>
+        <v>716.883</v>
       </c>
       <c r="DT36" t="n" s="10">
-        <v>736.936</v>
+        <v>738.036</v>
       </c>
       <c r="DU36" t="n" s="10">
-        <v>761.229</v>
-      </c>
-      <c r="DV36" t="s" s="10">
-        <v>43</v>
+        <v>761.621</v>
+      </c>
+      <c r="DV36" t="n" s="10">
+        <v>768.413</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s" s="13">
         <v>42</v>
@@ -14274,139 +14271,139 @@
         <v>10.291</v>
       </c>
       <c r="BH37" t="n" s="10">
-        <v>10.683</v>
+        <v>10.685</v>
       </c>
       <c r="BI37" t="n" s="10">
-        <v>11.006</v>
+        <v>11.009</v>
       </c>
       <c r="BJ37" t="n" s="10">
-        <v>11.181</v>
+        <v>11.182</v>
       </c>
       <c r="BK37" t="n" s="10">
-        <v>10.498</v>
+        <v>10.454</v>
       </c>
       <c r="BL37" t="n" s="10">
-        <v>9.922</v>
+        <v>9.924</v>
       </c>
       <c r="BM37" t="n" s="10">
-        <v>10.044</v>
+        <v>10.138</v>
       </c>
       <c r="BN37" t="n" s="10">
-        <v>10.227</v>
+        <v>10.405</v>
       </c>
       <c r="BO37" t="n" s="10">
-        <v>10.778</v>
+        <v>10.214</v>
       </c>
       <c r="BP37" t="n" s="10">
-        <v>11.156</v>
+        <v>11.334</v>
       </c>
       <c r="BQ37" t="n" s="10">
-        <v>10.658</v>
+        <v>10.975</v>
       </c>
       <c r="BR37" t="n" s="10">
-        <v>10.558</v>
+        <v>11.02</v>
       </c>
       <c r="BS37" t="n" s="10">
-        <v>13.49</v>
+        <v>12.187</v>
       </c>
       <c r="BT37" t="n" s="10">
-        <v>10.592</v>
+        <v>11.054</v>
       </c>
       <c r="BU37" t="n" s="10">
-        <v>10.189</v>
+        <v>10.611</v>
       </c>
       <c r="BV37" t="n" s="10">
-        <v>9.999</v>
+        <v>10.392</v>
       </c>
       <c r="BW37" t="n" s="10">
-        <v>14.324</v>
+        <v>13.191</v>
       </c>
       <c r="BX37" t="n" s="10">
-        <v>9.19</v>
+        <v>9.584</v>
       </c>
       <c r="BY37" t="n" s="10">
-        <v>9.201</v>
+        <v>9.453</v>
       </c>
       <c r="BZ37" t="n" s="10">
-        <v>9.294</v>
+        <v>9.403</v>
       </c>
       <c r="CA37" t="n" s="10">
-        <v>10.119</v>
+        <v>9.747</v>
       </c>
       <c r="CB37" t="n" s="10">
-        <v>10.39</v>
+        <v>10.5</v>
       </c>
       <c r="CC37" t="n" s="10">
-        <v>11.555</v>
+        <v>11.614</v>
       </c>
       <c r="CD37" t="n" s="10">
-        <v>12.361</v>
+        <v>12.365</v>
       </c>
       <c r="CE37" t="n" s="10">
-        <v>12.123</v>
+        <v>12.097</v>
       </c>
       <c r="CF37" t="n" s="10">
-        <v>13.446</v>
+        <v>13.443</v>
       </c>
       <c r="CG37" t="n" s="10">
-        <v>13.087</v>
+        <v>13.078</v>
       </c>
       <c r="CH37" t="n" s="10">
-        <v>13.348</v>
+        <v>13.371</v>
       </c>
       <c r="CI37" t="n" s="10">
-        <v>13.751</v>
+        <v>13.757</v>
       </c>
       <c r="CJ37" t="n" s="10">
-        <v>13.612</v>
+        <v>13.594</v>
       </c>
       <c r="CK37" t="n" s="10">
-        <v>13.719</v>
+        <v>13.694</v>
       </c>
       <c r="CL37" t="n" s="10">
-        <v>13.347</v>
+        <v>13.385</v>
       </c>
       <c r="CM37" t="n" s="10">
-        <v>16.872</v>
+        <v>16.883</v>
       </c>
       <c r="CN37" t="n" s="10">
-        <v>13.715</v>
+        <v>13.692</v>
       </c>
       <c r="CO37" t="n" s="10">
-        <v>14.783</v>
+        <v>14.767</v>
       </c>
       <c r="CP37" t="n" s="10">
-        <v>15.221</v>
+        <v>15.242</v>
       </c>
       <c r="CQ37" t="n" s="10">
-        <v>15.841</v>
+        <v>15.847</v>
       </c>
       <c r="CR37" t="n" s="10">
-        <v>15.619</v>
+        <v>15.61</v>
       </c>
       <c r="CS37" t="n" s="10">
-        <v>15.555</v>
+        <v>15.552</v>
       </c>
       <c r="CT37" t="n" s="10">
-        <v>15.862</v>
+        <v>15.863</v>
       </c>
       <c r="CU37" t="n" s="10">
-        <v>16.82</v>
+        <v>16.821</v>
       </c>
       <c r="CV37" t="n" s="10">
-        <v>19.253</v>
+        <v>19.256</v>
       </c>
       <c r="CW37" t="n" s="10">
-        <v>17.374</v>
+        <v>17.373</v>
       </c>
       <c r="CX37" t="n" s="10">
-        <v>17.531</v>
+        <v>17.53</v>
       </c>
       <c r="CY37" t="n" s="10">
         <v>16.096</v>
       </c>
       <c r="CZ37" t="n" s="10">
-        <v>16.795</v>
+        <v>16.796</v>
       </c>
       <c r="DA37" t="n" s="10">
         <v>16.69</v>
@@ -14442,42 +14439,42 @@
         <v>18.334</v>
       </c>
       <c r="DL37" t="n" s="10">
-        <v>19.013</v>
+        <v>19.015</v>
       </c>
       <c r="DM37" t="n" s="10">
-        <v>18.361</v>
+        <v>18.367</v>
       </c>
       <c r="DN37" t="n" s="10">
-        <v>18.568</v>
+        <v>18.561</v>
       </c>
       <c r="DO37" t="n" s="10">
-        <v>18.151</v>
+        <v>18.118</v>
       </c>
       <c r="DP37" t="n" s="10">
-        <v>17.44</v>
+        <v>17.521</v>
       </c>
       <c r="DQ37" t="n" s="10">
-        <v>18.667</v>
+        <v>18.717</v>
       </c>
       <c r="DR37" t="n" s="10">
-        <v>18.584</v>
+        <v>18.543</v>
       </c>
       <c r="DS37" t="n" s="10">
-        <v>19.387</v>
+        <v>19.406</v>
       </c>
       <c r="DT37" t="n" s="10">
-        <v>19.403</v>
+        <v>19.626</v>
       </c>
       <c r="DU37" t="n" s="10">
-        <v>19.666</v>
-      </c>
-      <c r="DV37" t="s" s="10">
-        <v>43</v>
+        <v>19.945</v>
+      </c>
+      <c r="DV37" t="n" s="10">
+        <v>21.025</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s" s="13">
         <v>42</v>
@@ -14822,42 +14819,42 @@
         <v>29.047</v>
       </c>
       <c r="DL38" t="n" s="10">
-        <v>29.819</v>
+        <v>29.818</v>
       </c>
       <c r="DM38" t="n" s="10">
-        <v>29.441</v>
+        <v>29.439</v>
       </c>
       <c r="DN38" t="n" s="10">
         <v>29.483</v>
       </c>
       <c r="DO38" t="n" s="10">
-        <v>30.187</v>
+        <v>30.194</v>
       </c>
       <c r="DP38" t="n" s="10">
-        <v>29.874</v>
+        <v>29.897</v>
       </c>
       <c r="DQ38" t="n" s="10">
-        <v>30.487</v>
+        <v>30.446</v>
       </c>
       <c r="DR38" t="n" s="10">
-        <v>30.529</v>
+        <v>30.499</v>
       </c>
       <c r="DS38" t="n" s="10">
-        <v>30.49</v>
+        <v>30.517</v>
       </c>
       <c r="DT38" t="n" s="10">
-        <v>31.256</v>
+        <v>31.324</v>
       </c>
       <c r="DU38" t="n" s="10">
-        <v>32.454</v>
-      </c>
-      <c r="DV38" t="s" s="10">
-        <v>43</v>
+        <v>32.53</v>
+      </c>
+      <c r="DV38" t="n" s="10">
+        <v>33.261</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s" s="13">
         <v>42</v>
@@ -15034,139 +15031,139 @@
         <v>462.15</v>
       </c>
       <c r="BH39" t="n" s="10">
-        <v>470.814</v>
+        <v>470.816</v>
       </c>
       <c r="BI39" t="n" s="10">
-        <v>474.136</v>
+        <v>474.139</v>
       </c>
       <c r="BJ39" t="n" s="10">
-        <v>477.505</v>
+        <v>477.506</v>
       </c>
       <c r="BK39" t="n" s="10">
-        <v>488.263</v>
+        <v>488.219</v>
       </c>
       <c r="BL39" t="n" s="10">
-        <v>494.264</v>
+        <v>494.266</v>
       </c>
       <c r="BM39" t="n" s="10">
-        <v>500.513</v>
+        <v>500.607</v>
       </c>
       <c r="BN39" t="n" s="10">
-        <v>510.511</v>
+        <v>510.689</v>
       </c>
       <c r="BO39" t="n" s="10">
-        <v>516.63</v>
+        <v>516.066</v>
       </c>
       <c r="BP39" t="n" s="10">
-        <v>514.127</v>
+        <v>514.305</v>
       </c>
       <c r="BQ39" t="n" s="10">
-        <v>521.251</v>
+        <v>521.568</v>
       </c>
       <c r="BR39" t="n" s="10">
-        <v>527.112</v>
+        <v>527.574</v>
       </c>
       <c r="BS39" t="n" s="10">
-        <v>528.3</v>
+        <v>526.997</v>
       </c>
       <c r="BT39" t="n" s="10">
-        <v>529.951</v>
+        <v>530.413</v>
       </c>
       <c r="BU39" t="n" s="10">
-        <v>522.607</v>
+        <v>523.029</v>
       </c>
       <c r="BV39" t="n" s="10">
-        <v>512.052</v>
+        <v>512.445</v>
       </c>
       <c r="BW39" t="n" s="10">
-        <v>500.937</v>
+        <v>499.804</v>
       </c>
       <c r="BX39" t="n" s="10">
-        <v>499.728</v>
+        <v>500.122</v>
       </c>
       <c r="BY39" t="n" s="10">
-        <v>506.108</v>
+        <v>506.36</v>
       </c>
       <c r="BZ39" t="n" s="10">
-        <v>510.65</v>
+        <v>510.759</v>
       </c>
       <c r="CA39" t="n" s="10">
-        <v>517.686</v>
+        <v>517.314</v>
       </c>
       <c r="CB39" t="n" s="10">
-        <v>525.924</v>
+        <v>526.034</v>
       </c>
       <c r="CC39" t="n" s="10">
-        <v>531.796</v>
+        <v>531.855</v>
       </c>
       <c r="CD39" t="n" s="10">
-        <v>544.212</v>
+        <v>544.216</v>
       </c>
       <c r="CE39" t="n" s="10">
-        <v>555.301</v>
+        <v>555.275</v>
       </c>
       <c r="CF39" t="n" s="10">
-        <v>560.574</v>
+        <v>560.571</v>
       </c>
       <c r="CG39" t="n" s="10">
-        <v>567.021</v>
+        <v>567.012</v>
       </c>
       <c r="CH39" t="n" s="10">
-        <v>568.622</v>
+        <v>568.645</v>
       </c>
       <c r="CI39" t="n" s="10">
-        <v>571.378</v>
+        <v>571.384</v>
       </c>
       <c r="CJ39" t="n" s="10">
-        <v>567.234</v>
+        <v>567.216</v>
       </c>
       <c r="CK39" t="n" s="10">
-        <v>569.712</v>
+        <v>569.687</v>
       </c>
       <c r="CL39" t="n" s="10">
-        <v>571.819</v>
+        <v>571.857</v>
       </c>
       <c r="CM39" t="n" s="10">
-        <v>569.22</v>
+        <v>569.231</v>
       </c>
       <c r="CN39" t="n" s="10">
-        <v>583.168</v>
+        <v>583.145</v>
       </c>
       <c r="CO39" t="n" s="10">
-        <v>584.379</v>
+        <v>584.363</v>
       </c>
       <c r="CP39" t="n" s="10">
-        <v>587.699</v>
+        <v>587.72</v>
       </c>
       <c r="CQ39" t="n" s="10">
-        <v>599.701</v>
+        <v>599.707</v>
       </c>
       <c r="CR39" t="n" s="10">
-        <v>601.105</v>
+        <v>601.096</v>
       </c>
       <c r="CS39" t="n" s="10">
-        <v>608.014</v>
+        <v>608.011</v>
       </c>
       <c r="CT39" t="n" s="10">
-        <v>615.426</v>
+        <v>615.427</v>
       </c>
       <c r="CU39" t="n" s="10">
-        <v>617.122</v>
+        <v>617.123</v>
       </c>
       <c r="CV39" t="n" s="10">
-        <v>624.36</v>
+        <v>624.363</v>
       </c>
       <c r="CW39" t="n" s="10">
-        <v>635.373</v>
+        <v>635.372</v>
       </c>
       <c r="CX39" t="n" s="10">
-        <v>638.81</v>
+        <v>638.809</v>
       </c>
       <c r="CY39" t="n" s="10">
         <v>644.086</v>
       </c>
       <c r="CZ39" t="n" s="10">
-        <v>660.756</v>
+        <v>660.757</v>
       </c>
       <c r="DA39" t="n" s="10">
         <v>651.698</v>
@@ -15178,66 +15175,66 @@
         <v>669.774</v>
       </c>
       <c r="DD39" t="n" s="10">
-        <v>669.871</v>
+        <v>669.872</v>
       </c>
       <c r="DE39" t="n" s="10">
         <v>686.723</v>
       </c>
       <c r="DF39" t="n" s="10">
-        <v>690.905</v>
+        <v>690.904</v>
       </c>
       <c r="DG39" t="n" s="10">
-        <v>695.992</v>
+        <v>695.989</v>
       </c>
       <c r="DH39" t="n" s="10">
-        <v>707.164</v>
+        <v>707.156</v>
       </c>
       <c r="DI39" t="n" s="10">
-        <v>704.859</v>
+        <v>704.86</v>
       </c>
       <c r="DJ39" t="n" s="10">
-        <v>713.208</v>
+        <v>713.248</v>
       </c>
       <c r="DK39" t="n" s="10">
-        <v>721.58</v>
+        <v>721.603</v>
       </c>
       <c r="DL39" t="n" s="10">
-        <v>723.109</v>
+        <v>722.751</v>
       </c>
       <c r="DM39" t="n" s="10">
-        <v>732.294</v>
+        <v>732.188</v>
       </c>
       <c r="DN39" t="n" s="10">
-        <v>724.322</v>
+        <v>724.94</v>
       </c>
       <c r="DO39" t="n" s="10">
-        <v>717.013</v>
+        <v>717.545</v>
       </c>
       <c r="DP39" t="n" s="10">
-        <v>639.695</v>
+        <v>638.485</v>
       </c>
       <c r="DQ39" t="n" s="10">
-        <v>695.487</v>
+        <v>694.52</v>
       </c>
       <c r="DR39" t="n" s="10">
-        <v>701.474</v>
+        <v>703.01</v>
       </c>
       <c r="DS39" t="n" s="10">
-        <v>703.249</v>
+        <v>705.772</v>
       </c>
       <c r="DT39" t="n" s="10">
-        <v>725.083</v>
+        <v>726.338</v>
       </c>
       <c r="DU39" t="n" s="10">
-        <v>748.441</v>
-      </c>
-      <c r="DV39" t="s" s="10">
-        <v>43</v>
+        <v>749.036</v>
+      </c>
+      <c r="DV39" t="n" s="10">
+        <v>756.177</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s" s="13">
         <v>42</v>
@@ -15414,139 +15411,139 @@
         <v>35.124</v>
       </c>
       <c r="BH40" t="n" s="10">
-        <v>39.826</v>
+        <v>39.828</v>
       </c>
       <c r="BI40" t="n" s="10">
-        <v>41.601</v>
+        <v>41.604</v>
       </c>
       <c r="BJ40" t="n" s="10">
-        <v>44.358</v>
+        <v>44.359</v>
       </c>
       <c r="BK40" t="n" s="10">
-        <v>49.618</v>
+        <v>49.574</v>
       </c>
       <c r="BL40" t="n" s="10">
-        <v>54.845</v>
+        <v>54.847</v>
       </c>
       <c r="BM40" t="n" s="10">
-        <v>58.946</v>
+        <v>59.04</v>
       </c>
       <c r="BN40" t="n" s="10">
-        <v>65.009</v>
+        <v>65.187</v>
       </c>
       <c r="BO40" t="n" s="10">
-        <v>71.797</v>
+        <v>71.233</v>
       </c>
       <c r="BP40" t="n" s="10">
-        <v>67.057</v>
+        <v>67.235</v>
       </c>
       <c r="BQ40" t="n" s="10">
-        <v>70.934</v>
+        <v>71.251</v>
       </c>
       <c r="BR40" t="n" s="10">
-        <v>72.735</v>
+        <v>73.197</v>
       </c>
       <c r="BS40" t="n" s="10">
-        <v>70.716</v>
+        <v>69.413</v>
       </c>
       <c r="BT40" t="n" s="10">
-        <v>68.043</v>
+        <v>68.505</v>
       </c>
       <c r="BU40" t="n" s="10">
-        <v>58.993</v>
+        <v>59.415</v>
       </c>
       <c r="BV40" t="n" s="10">
-        <v>48.174</v>
+        <v>48.567</v>
       </c>
       <c r="BW40" t="n" s="10">
-        <v>34.705</v>
+        <v>33.572</v>
       </c>
       <c r="BX40" t="n" s="10">
-        <v>32.838</v>
+        <v>33.232</v>
       </c>
       <c r="BY40" t="n" s="10">
-        <v>38.549</v>
+        <v>38.801</v>
       </c>
       <c r="BZ40" t="n" s="10">
-        <v>41.7</v>
+        <v>41.809</v>
       </c>
       <c r="CA40" t="n" s="10">
-        <v>45.051</v>
+        <v>44.679</v>
       </c>
       <c r="CB40" t="n" s="10">
-        <v>50.432</v>
+        <v>50.542</v>
       </c>
       <c r="CC40" t="n" s="10">
-        <v>50.894</v>
+        <v>50.953</v>
       </c>
       <c r="CD40" t="n" s="10">
-        <v>58.296</v>
+        <v>58.3</v>
       </c>
       <c r="CE40" t="n" s="10">
-        <v>67.228</v>
+        <v>67.202</v>
       </c>
       <c r="CF40" t="n" s="10">
-        <v>67.051</v>
+        <v>67.048</v>
       </c>
       <c r="CG40" t="n" s="10">
-        <v>70.012</v>
+        <v>70.003</v>
       </c>
       <c r="CH40" t="n" s="10">
-        <v>68.3</v>
+        <v>68.323</v>
       </c>
       <c r="CI40" t="n" s="10">
-        <v>65.183</v>
+        <v>65.189</v>
       </c>
       <c r="CJ40" t="n" s="10">
-        <v>60.029</v>
+        <v>60.011</v>
       </c>
       <c r="CK40" t="n" s="10">
-        <v>60.54</v>
+        <v>60.515</v>
       </c>
       <c r="CL40" t="n" s="10">
-        <v>58.087</v>
+        <v>58.125</v>
       </c>
       <c r="CM40" t="n" s="10">
-        <v>53.435</v>
+        <v>53.446</v>
       </c>
       <c r="CN40" t="n" s="10">
-        <v>62.906</v>
+        <v>62.883</v>
       </c>
       <c r="CO40" t="n" s="10">
-        <v>60.384</v>
+        <v>60.368</v>
       </c>
       <c r="CP40" t="n" s="10">
-        <v>62.77</v>
+        <v>62.791</v>
       </c>
       <c r="CQ40" t="n" s="10">
-        <v>70.661</v>
+        <v>70.667</v>
       </c>
       <c r="CR40" t="n" s="10">
-        <v>69.086</v>
+        <v>69.077</v>
       </c>
       <c r="CS40" t="n" s="10">
-        <v>71.893</v>
+        <v>71.89</v>
       </c>
       <c r="CT40" t="n" s="10">
-        <v>75.729</v>
+        <v>75.73</v>
       </c>
       <c r="CU40" t="n" s="10">
-        <v>74.426</v>
+        <v>74.427</v>
       </c>
       <c r="CV40" t="n" s="10">
-        <v>77.686</v>
+        <v>77.689</v>
       </c>
       <c r="CW40" t="n" s="10">
-        <v>83.31</v>
+        <v>83.309</v>
       </c>
       <c r="CX40" t="n" s="10">
-        <v>81.318</v>
+        <v>81.317</v>
       </c>
       <c r="CY40" t="n" s="10">
         <v>82.13</v>
       </c>
       <c r="CZ40" t="n" s="10">
-        <v>92.37</v>
+        <v>92.371</v>
       </c>
       <c r="DA40" t="n" s="10">
         <v>80.272</v>
@@ -15558,451 +15555,451 @@
         <v>88.871</v>
       </c>
       <c r="DD40" t="n" s="10">
-        <v>85.438</v>
+        <v>85.439</v>
       </c>
       <c r="DE40" t="n" s="10">
-        <v>95.842</v>
+        <v>95.847</v>
       </c>
       <c r="DF40" t="n" s="10">
-        <v>96.268</v>
+        <v>96.279</v>
       </c>
       <c r="DG40" t="n" s="10">
-        <v>96.186</v>
+        <v>96.189</v>
       </c>
       <c r="DH40" t="n" s="10">
-        <v>103.791</v>
+        <v>103.632</v>
       </c>
       <c r="DI40" t="n" s="10">
-        <v>99.018</v>
+        <v>99.023</v>
       </c>
       <c r="DJ40" t="n" s="10">
-        <v>100.23</v>
+        <v>100.577</v>
       </c>
       <c r="DK40" t="n" s="10">
-        <v>101.919</v>
+        <v>102.511</v>
       </c>
       <c r="DL40" t="n" s="10">
-        <v>100.519</v>
+        <v>98.206</v>
       </c>
       <c r="DM40" t="n" s="10">
-        <v>101.086</v>
+        <v>101.836</v>
       </c>
       <c r="DN40" t="n" s="10">
-        <v>90.305</v>
+        <v>92.248</v>
       </c>
       <c r="DO40" t="n" s="10">
-        <v>82.002</v>
+        <v>83.465</v>
       </c>
       <c r="DP40" t="n" s="10">
-        <v>62.185</v>
+        <v>56.089</v>
       </c>
       <c r="DQ40" t="n" s="10">
-        <v>68.84</v>
+        <v>70.343</v>
       </c>
       <c r="DR40" t="n" s="10">
-        <v>78.21</v>
+        <v>82.4</v>
       </c>
       <c r="DS40" t="n" s="10">
-        <v>87.442</v>
+        <v>90.519</v>
       </c>
       <c r="DT40" t="n" s="10">
-        <v>103.546</v>
+        <v>99.572</v>
       </c>
       <c r="DU40" t="n" s="10">
-        <v>84.504</v>
-      </c>
-      <c r="DV40" t="s" s="10">
-        <v>43</v>
+        <v>91.117</v>
+      </c>
+      <c r="DV40" t="n" s="10">
+        <v>93.009</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s" s="13">
         <v>42</v>
       </c>
       <c r="C41" t="n" s="10">
-        <v>-10.323</v>
+        <v>-10.071</v>
       </c>
       <c r="D41" t="n" s="10">
-        <v>-7.31</v>
+        <v>-7.339</v>
       </c>
       <c r="E41" t="n" s="10">
-        <v>-6.126</v>
+        <v>-6.104</v>
       </c>
       <c r="F41" t="n" s="10">
-        <v>-5.026</v>
+        <v>-4.84</v>
       </c>
       <c r="G41" t="n" s="10">
-        <v>-5.633</v>
+        <v>-5.693</v>
       </c>
       <c r="H41" t="n" s="10">
-        <v>-6.047</v>
+        <v>-5.94</v>
       </c>
       <c r="I41" t="n" s="10">
-        <v>-3.611</v>
+        <v>-3.617</v>
       </c>
       <c r="J41" t="n" s="10">
-        <v>-6.031</v>
+        <v>-6.092</v>
       </c>
       <c r="K41" t="n" s="10">
-        <v>-3.628</v>
+        <v>-3.559</v>
       </c>
       <c r="L41" t="n" s="10">
-        <v>-4.409</v>
+        <v>-4.473</v>
       </c>
       <c r="M41" t="n" s="10">
-        <v>-5.81</v>
+        <v>-5.857</v>
       </c>
       <c r="N41" t="n" s="10">
-        <v>-2.657</v>
+        <v>-2.842</v>
       </c>
       <c r="O41" t="n" s="10">
-        <v>-6.673</v>
+        <v>-6.723</v>
       </c>
       <c r="P41" t="n" s="10">
-        <v>-5.494</v>
+        <v>-5.569</v>
       </c>
       <c r="Q41" t="n" s="10">
-        <v>-6.865</v>
+        <v>-6.931</v>
       </c>
       <c r="R41" t="n" s="10">
-        <v>-9.137</v>
+        <v>-9.081</v>
       </c>
       <c r="S41" t="n" s="10">
-        <v>-6.362</v>
+        <v>-6.47</v>
       </c>
       <c r="T41" t="n" s="10">
-        <v>-7.495</v>
+        <v>-7.443</v>
       </c>
       <c r="U41" t="n" s="10">
-        <v>-7.3</v>
+        <v>-7.18</v>
       </c>
       <c r="V41" t="n" s="10">
-        <v>-6.552</v>
+        <v>-6.497</v>
       </c>
       <c r="W41" t="n" s="10">
-        <v>-3.798</v>
+        <v>-3.843</v>
       </c>
       <c r="X41" t="n" s="10">
-        <v>-5.875</v>
+        <v>-5.759</v>
       </c>
       <c r="Y41" t="n" s="10">
-        <v>-4.646</v>
+        <v>-4.628</v>
       </c>
       <c r="Z41" t="n" s="10">
-        <v>-4.224</v>
+        <v>-4.146</v>
       </c>
       <c r="AA41" t="n" s="10">
-        <v>-7.378</v>
+        <v>-7.105</v>
       </c>
       <c r="AB41" t="n" s="10">
-        <v>-2.14</v>
+        <v>-2.265</v>
       </c>
       <c r="AC41" t="n" s="10">
-        <v>-1.893</v>
+        <v>-1.868</v>
       </c>
       <c r="AD41" t="n" s="10">
-        <v>-1.806</v>
+        <v>-1.69</v>
       </c>
       <c r="AE41" t="n" s="10">
-        <v>-1.694</v>
+        <v>-1.732</v>
       </c>
       <c r="AF41" t="n" s="10">
-        <v>-4.286</v>
+        <v>-4.157</v>
       </c>
       <c r="AG41" t="n" s="10">
-        <v>-3.318</v>
+        <v>-3.354</v>
       </c>
       <c r="AH41" t="n" s="10">
-        <v>-4.571</v>
+        <v>-4.673</v>
       </c>
       <c r="AI41" t="n" s="10">
-        <v>-8.092</v>
+        <v>-8.059</v>
       </c>
       <c r="AJ41" t="n" s="10">
-        <v>-5.739</v>
+        <v>-5.86</v>
       </c>
       <c r="AK41" t="n" s="10">
-        <v>-7.244</v>
+        <v>-7.291</v>
       </c>
       <c r="AL41" t="n" s="10">
-        <v>-4.13</v>
+        <v>-4.375</v>
       </c>
       <c r="AM41" t="n" s="10">
-        <v>-6.143</v>
+        <v>-6.445</v>
       </c>
       <c r="AN41" t="n" s="10">
-        <v>-9.94</v>
+        <v>-10.139</v>
       </c>
       <c r="AO41" t="n" s="10">
-        <v>-13.271</v>
+        <v>-12.544</v>
       </c>
       <c r="AP41" t="n" s="10">
-        <v>-10.947</v>
+        <v>-10.971</v>
       </c>
       <c r="AQ41" t="n" s="10">
-        <v>-8.608</v>
+        <v>-8.956</v>
       </c>
       <c r="AR41" t="n" s="10">
-        <v>-5.95</v>
+        <v>-6.407</v>
       </c>
       <c r="AS41" t="n" s="10">
-        <v>-5.237</v>
+        <v>-4.097</v>
       </c>
       <c r="AT41" t="n" s="10">
-        <v>4.77</v>
+        <v>5.019</v>
       </c>
       <c r="AU41" t="n" s="10">
-        <v>5.232</v>
+        <v>4.925</v>
       </c>
       <c r="AV41" t="n" s="10">
-        <v>9.66</v>
+        <v>9.083</v>
       </c>
       <c r="AW41" t="n" s="10">
-        <v>12.402</v>
+        <v>12.589</v>
       </c>
       <c r="AX41" t="n" s="10">
-        <v>7.25</v>
+        <v>8.489</v>
       </c>
       <c r="AY41" t="n" s="10">
-        <v>4.427</v>
+        <v>3.867</v>
       </c>
       <c r="AZ41" t="n" s="10">
-        <v>4.04</v>
+        <v>3.697</v>
       </c>
       <c r="BA41" t="n" s="10">
-        <v>9.938</v>
+        <v>9.564</v>
       </c>
       <c r="BB41" t="n" s="10">
-        <v>18.407</v>
+        <v>19.767</v>
       </c>
       <c r="BC41" t="n" s="10">
-        <v>24.112</v>
+        <v>23.525</v>
       </c>
       <c r="BD41" t="n" s="10">
-        <v>27.382</v>
+        <v>27.093</v>
       </c>
       <c r="BE41" t="n" s="10">
-        <v>25.041</v>
+        <v>24.848</v>
       </c>
       <c r="BF41" t="n" s="10">
-        <v>28.661</v>
+        <v>28.797</v>
       </c>
       <c r="BG41" t="n" s="10">
-        <v>24.752</v>
+        <v>24.754</v>
       </c>
       <c r="BH41" t="n" s="10">
-        <v>27.36</v>
+        <v>27.016</v>
       </c>
       <c r="BI41" t="n" s="10">
-        <v>28.143</v>
+        <v>28.032</v>
       </c>
       <c r="BJ41" t="n" s="10">
-        <v>25.501</v>
+        <v>25.502</v>
       </c>
       <c r="BK41" t="n" s="10">
-        <v>29.981</v>
+        <v>29.731</v>
       </c>
       <c r="BL41" t="n" s="10">
-        <v>31.0</v>
+        <v>31.123</v>
       </c>
       <c r="BM41" t="n" s="10">
-        <v>34.464</v>
+        <v>34.622</v>
       </c>
       <c r="BN41" t="n" s="10">
-        <v>41.853</v>
+        <v>42.101</v>
       </c>
       <c r="BO41" t="n" s="10">
-        <v>42.381</v>
+        <v>41.793</v>
       </c>
       <c r="BP41" t="n" s="10">
-        <v>38.382</v>
+        <v>38.718</v>
       </c>
       <c r="BQ41" t="n" s="10">
-        <v>45.359</v>
+        <v>45.773</v>
       </c>
       <c r="BR41" t="n" s="10">
-        <v>44.567</v>
+        <v>45.087</v>
       </c>
       <c r="BS41" t="n" s="10">
-        <v>39.473</v>
+        <v>38.338</v>
       </c>
       <c r="BT41" t="n" s="10">
-        <v>37.907</v>
+        <v>38.137</v>
       </c>
       <c r="BU41" t="n" s="10">
-        <v>34.617</v>
+        <v>34.997</v>
       </c>
       <c r="BV41" t="n" s="10">
-        <v>27.92</v>
+        <v>28.399</v>
       </c>
       <c r="BW41" t="n" s="10">
-        <v>26.34</v>
+        <v>25.199</v>
       </c>
       <c r="BX41" t="n" s="10">
-        <v>32.135</v>
+        <v>32.686</v>
       </c>
       <c r="BY41" t="n" s="10">
-        <v>41.039</v>
+        <v>41.242</v>
       </c>
       <c r="BZ41" t="n" s="10">
-        <v>41.223</v>
+        <v>41.226</v>
       </c>
       <c r="CA41" t="n" s="10">
-        <v>37.042</v>
+        <v>36.671</v>
       </c>
       <c r="CB41" t="n" s="10">
-        <v>36.771</v>
+        <v>36.793</v>
       </c>
       <c r="CC41" t="n" s="10">
-        <v>36.287</v>
+        <v>36.264</v>
       </c>
       <c r="CD41" t="n" s="10">
-        <v>41.897</v>
+        <v>41.671</v>
       </c>
       <c r="CE41" t="n" s="10">
-        <v>41.787</v>
+        <v>41.664</v>
       </c>
       <c r="CF41" t="n" s="10">
-        <v>38.944</v>
+        <v>38.835</v>
       </c>
       <c r="CG41" t="n" s="10">
-        <v>41.945</v>
+        <v>41.851</v>
       </c>
       <c r="CH41" t="n" s="10">
-        <v>42.314</v>
+        <v>42.338</v>
       </c>
       <c r="CI41" t="n" s="10">
-        <v>48.574</v>
+        <v>48.382</v>
       </c>
       <c r="CJ41" t="n" s="10">
-        <v>49.161</v>
+        <v>49.218</v>
       </c>
       <c r="CK41" t="n" s="10">
-        <v>50.369</v>
+        <v>50.463</v>
       </c>
       <c r="CL41" t="n" s="10">
-        <v>45.627</v>
+        <v>45.766</v>
       </c>
       <c r="CM41" t="n" s="10">
-        <v>41.428</v>
+        <v>41.656</v>
       </c>
       <c r="CN41" t="n" s="10">
-        <v>47.515</v>
+        <v>47.46</v>
       </c>
       <c r="CO41" t="n" s="10">
-        <v>43.004</v>
+        <v>43.007</v>
       </c>
       <c r="CP41" t="n" s="10">
-        <v>47.723</v>
+        <v>47.796</v>
       </c>
       <c r="CQ41" t="n" s="10">
-        <v>50.657</v>
+        <v>50.697</v>
       </c>
       <c r="CR41" t="n" s="10">
-        <v>48.896</v>
+        <v>49.043</v>
       </c>
       <c r="CS41" t="n" s="10">
-        <v>54.973</v>
+        <v>55.113</v>
       </c>
       <c r="CT41" t="n" s="10">
-        <v>58.784</v>
+        <v>58.556</v>
       </c>
       <c r="CU41" t="n" s="10">
-        <v>60.935</v>
+        <v>61.028</v>
       </c>
       <c r="CV41" t="n" s="10">
-        <v>64.66</v>
+        <v>65.034</v>
       </c>
       <c r="CW41" t="n" s="10">
-        <v>67.86</v>
+        <v>68.211</v>
       </c>
       <c r="CX41" t="n" s="10">
-        <v>67.243</v>
+        <v>65.951</v>
       </c>
       <c r="CY41" t="n" s="10">
-        <v>64.294</v>
+        <v>64.762</v>
       </c>
       <c r="CZ41" t="n" s="10">
-        <v>77.487</v>
+        <v>77.784</v>
       </c>
       <c r="DA41" t="n" s="10">
-        <v>62.432</v>
+        <v>63.23</v>
       </c>
       <c r="DB41" t="n" s="10">
-        <v>68.326</v>
+        <v>66.021</v>
       </c>
       <c r="DC41" t="n" s="10">
-        <v>64.467</v>
+        <v>64.677</v>
       </c>
       <c r="DD41" t="n" s="10">
-        <v>56.128</v>
+        <v>57.001</v>
       </c>
       <c r="DE41" t="n" s="10">
-        <v>68.205</v>
+        <v>70.07</v>
       </c>
       <c r="DF41" t="n" s="10">
-        <v>66.973</v>
+        <v>64.573</v>
       </c>
       <c r="DG41" t="n" s="10">
-        <v>71.922</v>
+        <v>71.775</v>
       </c>
       <c r="DH41" t="n" s="10">
-        <v>71.248</v>
+        <v>71.845</v>
       </c>
       <c r="DI41" t="n" s="10">
-        <v>57.393</v>
+        <v>59.632</v>
       </c>
       <c r="DJ41" t="n" s="10">
-        <v>65.66</v>
+        <v>64.038</v>
       </c>
       <c r="DK41" t="n" s="10">
-        <v>67.672</v>
+        <v>66.781</v>
       </c>
       <c r="DL41" t="n" s="10">
-        <v>59.897</v>
+        <v>60.55</v>
       </c>
       <c r="DM41" t="n" s="10">
-        <v>65.937</v>
+        <v>67.228</v>
       </c>
       <c r="DN41" t="n" s="10">
-        <v>62.098</v>
+        <v>61.533</v>
       </c>
       <c r="DO41" t="n" s="10">
-        <v>56.175</v>
+        <v>55.501</v>
       </c>
       <c r="DP41" t="n" s="10">
-        <v>42.684</v>
+        <v>43.243</v>
       </c>
       <c r="DQ41" t="n" s="10">
-        <v>60.473</v>
+        <v>61.235</v>
       </c>
       <c r="DR41" t="n" s="10">
-        <v>67.724</v>
+        <v>66.533</v>
       </c>
       <c r="DS41" t="n" s="10">
-        <v>67.337</v>
+        <v>68.597</v>
       </c>
       <c r="DT41" t="n" s="10">
-        <v>61.278</v>
+        <v>65.322</v>
       </c>
       <c r="DU41" t="n" s="10">
-        <v>55.253</v>
-      </c>
-      <c r="DV41" t="s" s="10">
-        <v>43</v>
+        <v>61.982</v>
+      </c>
+      <c r="DV41" t="n" s="10">
+        <v>51.793</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="12">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -16049,7 +16046,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:47:06&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:16:26&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>